--- a/arch/SEIR.xlsx
+++ b/arch/SEIR.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Параметр</t>
   </si>
@@ -43,13 +43,16 @@
     <t>M₀ (материнский иммунитет)</t>
   </si>
   <si>
-    <t>0.99</t>
+    <t>0.0000</t>
   </si>
   <si>
-    <t>0.01</t>
+    <t>0.5702</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>0.4205</t>
+  </si>
+  <si>
+    <t>0.03</t>
   </si>
   <si>
     <t>β (скорость заражения)</t>
@@ -67,13 +70,13 @@
     <t>μ (выход из изоляции)</t>
   </si>
   <si>
-    <t>0.3</t>
+    <t>0.1340</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>0.0294</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>0.25</t>
   </si>
   <si>
     <t>Метод решения:</t>
@@ -204,11 +207,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$C$4</c:f>
+              <c:f>'Решение'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E</c:v>
+                  <c:v>S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -530,7 +533,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$C$5:$C$105</c:f>
+              <c:f>'Решение'!$B$5:$B$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
@@ -538,304 +541,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00257842333032134</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.004569663172925394</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.006193200918336978</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.007598174830930384</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.008886848952569509</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01013026258347003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01137867790652886</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.01266855559414075</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.01402720619636118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01547588074566934</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01703180892208135</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.01870952324523593</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.02052169437959813</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.02247962688363889</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.02459351413886922</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02687251750465831</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02932471248981187</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.03195693029311911</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03477451405647571</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.03778100402890783</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.04097776352985835</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.04436355744255151</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.04793409648757803</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.05168156335335189</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0555941405526315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.05965556426071992</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.06384473292442974</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.06813540356372795</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.07249601176712696</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.07688965267164451</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.08127425895482006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.08560300734679271</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.08982497687118852</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.09388606973746641</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.09773018977835043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1013006543513916</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1045417950915083</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1074006827317944</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1098288936842449</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1117842235528415</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1132322473260842</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1141476291027845</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1145150963168465</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1143300138699364</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1135985205419123</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1123372207881086</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.110572456273385</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1083392099128477</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1056797179157219</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.102641880340691</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.09927756703225869</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.09564091370279916</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.09178669350851459</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0877688345797894</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.08363913578599538</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.07944621371961332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.07523469537757584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.07104465474909318</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.06691127841119322</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.06286473569487613</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.05893022299053643</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.05512814896411362</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.05147442730868038</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.04798084552453902</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.04465548146870641</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.04150314346741084</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0385258141651624</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.03572308262416053</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.03309255323027899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.03063022354552796</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.02833082629021584</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.02618813312022046</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.02419521980785297</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.02234469388812876</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.02062888686012799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.01904001370537651</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.01757030287067974</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.01621210002531077</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.01495794889809888</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.01380065237649618</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.01273331684626912</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.01174938249819993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.01084264205106782</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.01000725005606155</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.009237724669415102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.008528943516121011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.007876135023509938</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.007274866382291408</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.006721029095516015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.006210822902740361</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.005740738716465791</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.005307541079131752</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.004908250539702282</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.004540126257171408</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.004200649062090962</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.003887505144518238</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.003598570485736738</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.003331896110019466</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.003085694200047092</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.00285832509400193</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,11 +849,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$D$4</c:f>
+              <c:f>'Решение'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I</c:v>
+                  <c:v>E</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1172,312 +1175,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$D$5:$D$105</c:f>
+              <c:f>'Решение'!$C$5:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.009309711472052102</c:v>
+                  <c:v>0.0233642578125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00911472875983175</c:v>
+                  <c:v>0.01819628477096558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00927878936939429</c:v>
+                  <c:v>0.01417142295395024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.009713100175435389</c:v>
+                  <c:v>0.01103682598220246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01036085784059939</c:v>
+                  <c:v>0.008595574922662559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01118690035779879</c:v>
+                  <c:v>0.006694307617991593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01217078421969338</c:v>
+                  <c:v>0.005213584302097944</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.01330215014509369</c:v>
+                  <c:v>0.004060384258713975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0145776174528831</c:v>
+                  <c:v>0.003162262154613667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01599869817663457</c:v>
+                  <c:v>0.002462796941703515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01757038936802502</c:v>
+                  <c:v>0.001918047422859915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.01930021373438904</c:v>
+                  <c:v>0.001493791816143343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.02119755333367635</c:v>
+                  <c:v>0.001163377903685855</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.02327317083982424</c:v>
+                  <c:v>0.0009060487091694038</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.02553884612324104</c:v>
+                  <c:v>0.0007056385210572261</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02800707807506958</c:v>
+                  <c:v>0.000549557344280408</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.03069081644303403</c:v>
+                  <c:v>0.0004279999824840092</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.03360319844175397</c:v>
+                  <c:v>0.0003333300644833958</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03675727175292631</c:v>
+                  <c:v>0.0002596003187749103</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.04016569041092433</c:v>
+                  <c:v>0.0002021789592021396</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.04384037379365952</c:v>
+                  <c:v>0.000157458710902057</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.04779212208616718</c:v>
+                  <c:v>0.0001226301972113188</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.05203018457135807</c:v>
+                  <c:v>9.550545144143236e-05</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.05656178022633093</c:v>
+                  <c:v>7.438046633256085e-05</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.06139157356634826</c:v>
+                  <c:v>5.792814638693094e-05</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.06652111259842421</c:v>
+                  <c:v>4.511493822614984e-05</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.07194824015028436</c:v>
+                  <c:v>3.513590159702587e-05</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0776664946588673</c:v>
+                  <c:v>2.73641421129181e-05</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.08366452155822143</c:v>
+                  <c:v>2.13114290381369e-05</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.08992552140626307</c:v>
+                  <c:v>1.659752407999431e-05</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.09642676542409598</c:v>
+                  <c:v>1.292629438847213e-05</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1031392126789418</c:v>
+                  <c:v>1.00671091550845e-05</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1100272651408322</c:v>
+                  <c:v>7.840351124199109e-06</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1170486966867776</c:v>
+                  <c:v>6.10613283354374e-06</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1241547892759538</c:v>
+                  <c:v>4.755508725342902e-06</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1312907035873507</c:v>
+                  <c:v>3.703631062950161e-06</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1383961022550394</c:v>
+                  <c:v>2.884419699905033e-06</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1454060316445221</c:v>
+                  <c:v>2.246410850267836e-06</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1522520534613545</c:v>
+                  <c:v>1.749524075281835e-06</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1588636013377519</c:v>
+                  <c:v>1.362544384802015e-06</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1651695212085341</c:v>
+                  <c:v>1.061161276249616e-06</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1710997392848923</c:v>
+                  <c:v>8.264415212979188e-07</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1765869893232679</c:v>
+                  <c:v>6.436397590186429e-07</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1815685230593441</c:v>
+                  <c:v>5.012721756028981e-07</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.185987725153257</c:v>
+                  <c:v>3.903950781672961e-07</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1897955572543761</c:v>
+                  <c:v>3.040430418343932e-07</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1929517646986322</c:v>
+                  <c:v>2.367913338505162e-07</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1954257931320957</c:v>
+                  <c:v>1.844151257283073e-07</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1971973797218178</c:v>
+                  <c:v>1.436240847346925e-07</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1982568029324511</c:v>
+                  <c:v>1.118556714608567e-07</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1986047943523639</c:v>
+                  <c:v>8.71141581933918e-08</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.198252134082347</c:v>
+                  <c:v>6.784525503831051e-08</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.197218966380976</c:v>
+                  <c:v>5.283846766899671e-08</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1955338836425401</c:v>
+                  <c:v>4.115105270119617e-08</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1932328338945891</c:v>
+                  <c:v>3.204879348555073e-08</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1903579098354179</c:v>
+                  <c:v>2.495987578586593e-08</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1869560763723213</c:v>
+                  <c:v>1.943896576096492e-08</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1830778893380165</c:v>
+                  <c:v>1.513923358825149e-08</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1787762513857967</c:v>
+                  <c:v>1.179056522131891e-08</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1741052428703014</c:v>
+                  <c:v>9.182593519533038e-09</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1691190566376261</c:v>
+                  <c:v>7.151482745925388e-09</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1638710567865685</c:v>
+                  <c:v>5.56963622058154e-09</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1584129731779327</c:v>
+                  <c:v>4.337680552650174e-09</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1527942361497211</c:v>
+                  <c:v>3.378222891346205e-09</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1470614497722767</c:v>
+                  <c:v>2.630989019383397e-09</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1412579971409083</c:v>
+                  <c:v>2.049036858357675e-09</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1354237676369994</c:v>
+                  <c:v>1.595807514199459e-09</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1295949936962037</c:v>
+                  <c:v>1.242828606029364e-09</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.123804183258152</c:v>
+                  <c:v>9.679255989340014e-10</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.118080133564612</c:v>
+                  <c:v>7.538287745604162e-10</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1124480121444101</c:v>
+                  <c:v>5.870883278436835e-10</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1069294915033529</c:v>
+                  <c:v>4.572294350149781e-10</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1015429250722777</c:v>
+                  <c:v>3.560942133051221e-10</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.09630355322425568</c:v>
+                  <c:v>2.773292335066747e-10</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.09122372954452514</c:v>
+                  <c:v>2.159863903530987e-10</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.08631315893875753</c:v>
+                  <c:v>1.682120569400354e-10</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.08157914053301306</c:v>
+                  <c:v>1.310049955172639e-10</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.07702680960715917</c:v>
+                  <c:v>1.020278163330253e-10</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.07265937398328867</c:v>
+                  <c:v>7.946014016170676e-11</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.06847834134512035</c:v>
+                  <c:v>6.188424001851674e-11</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.06448373488667378</c:v>
+                  <c:v>4.81959779441085e-11</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.06067429547916929</c:v>
+                  <c:v>3.753544180705716e-11</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.05704766920977508</c:v>
+                  <c:v>2.923292464953914e-11</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.05360057969358166</c:v>
+                  <c:v>2.276685293750729e-11</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.05032898500212965</c:v>
+                  <c:v>1.773102072037311e-11</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.04722821940001245</c:v>
+                  <c:v>1.380907131298589e-11</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.04429312034775854</c:v>
+                  <c:v>1.075462341026001e-11</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.04151814142623273</c:v>
+                  <c:v>8.375793134455429e-12</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0388974519763014</c:v>
+                  <c:v>6.523139672586138e-12</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.03642502433763953</c:v>
+                  <c:v>5.080277235241646e-12</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.03409470962139641</c:v>
+                  <c:v>3.956563569438684e-12</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.03190030297094882</c:v>
+                  <c:v>3.081405709597022e-12</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.02983559926003686</c:v>
+                  <c:v>2.399825247464478e-12</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.02789444015405046</c:v>
+                  <c:v>1.869004526223556e-12</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.02607075342302195</c:v>
+                  <c:v>1.455596786780552e-12</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.02435858534804042</c:v>
+                  <c:v>1.133631286579581e-12</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.02275212700964302</c:v>
+                  <c:v>8.828817881320465e-13</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.02124573518991192</c:v>
+                  <c:v>6.875959238626045e-13</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.01983394856160521</c:v>
+                  <c:v>5.355056145316672e-13</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.01851149977929666</c:v>
+                  <c:v>4.170563745986372e-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1488,11 +1491,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$E$4</c:f>
+              <c:f>'Решение'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R</c:v>
+                  <c:v>I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1814,312 +1817,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$E$5:$E$105</c:f>
+              <c:f>'Решение'!$D$5:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00096052794625</c:v>
+                  <c:v>0.5602152622310482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.001878211657962947</c:v>
+                  <c:v>0.5490742922564258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.002795279950311929</c:v>
+                  <c:v>0.5371303229130484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.003742868742097405</c:v>
+                  <c:v>0.5246556306550239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.004744940964859567</c:v>
+                  <c:v>0.5118595242359292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.005820932727802373</c:v>
+                  <c:v>0.49890235207849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.006987547672327519</c:v>
+                  <c:v>0.4859064090324779</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.008259981316969651</c:v>
+                  <c:v>0.4729644284161981</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.009652763655699283</c:v>
+                  <c:v>0.4601461935208477</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01118034569885257</c:v>
+                  <c:v>0.4475036845992811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01285751369896031</c:v>
+                  <c:v>0.4350750853385088</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.01469968661710108</c:v>
+                  <c:v>0.42288790114762</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.01672313338489986</c:v>
+                  <c:v>0.4109613857775004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.01894513365015058</c:v>
+                  <c:v>0.3993084293193152</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.02138409692114014</c:v>
+                  <c:v>0.3879370267744351</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02405964898452446</c:v>
+                  <c:v>0.3768514200225114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02699269025687075</c:v>
+                  <c:v>0.3660529854804107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0302054277395685</c:v>
+                  <c:v>0.3555409237527115</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03372138008689474</c:v>
+                  <c:v>0.3453127951197918</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.03756535371550991</c:v>
+                  <c:v>0.3353649350097743</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.04176338672658882</c:v>
+                  <c:v>0.325692776046376</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.04634265659418384</c:v>
+                  <c:v>0.3162910973814624</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.05133134705956853</c:v>
+                  <c:v>0.3071542174392112</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.05675846946091458</c:v>
+                  <c:v>0.2982761426304202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.06265363384529547</c:v>
+                  <c:v>0.2896506818164439</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.06904676569620384</c:v>
+                  <c:v>0.2812715341379338</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0759677650122909</c:v>
+                  <c:v>0.2731323561380083</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.08344610583766962</c:v>
+                  <c:v>0.2652268127967904</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0915103762044011</c:v>
+                  <c:v>0.2575486160719507</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1001877608137462</c:v>
+                  <c:v>0.2500915537437484</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1095034716292687</c:v>
+                  <c:v>0.2428495107430487</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1194801348105539</c:v>
+                  <c:v>0.2358164846579523</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1301371459547883</c:v>
+                  <c:v>0.2289865967386556</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1414900092488955</c:v>
+                  <c:v>0.2223540994273503</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1535496796240273</c:v>
+                  <c:v>0.2159133812119448</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1663219300565422</c:v>
+                  <c:v>0.2096589694248367</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1798067684574482</c:v>
+                  <c:v>0.2035855314697046</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1939979298196292</c:v>
+                  <c:v>0.1976878748516347</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2088824691709228</c:v>
+                  <c:v>0.1919609463020845</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2244404792104441</c:v>
+                  <c:v>0.1863998302249268</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2406449531989911</c:v>
+                  <c:v>0.1809997466390244</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2574618087878884</c:v>
+                  <c:v>0.175756048753242</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2748500822159053</c:v>
+                  <c:v>0.1706642202790319</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2927622950419304</c:v>
+                  <c:v>0.1657198725617822</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3111449877951155</c:v>
+                  <c:v>0.1609187415934889</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3299394071736054</c:v>
+                  <c:v>0.156256684954824</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3490823262844966</c:v>
+                  <c:v>0.1517296787234054</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.3685069714221051</c:v>
+                  <c:v>0.1473338143763198</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3881440244558275</c:v>
+                  <c:v>0.143065295708151</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.4079226673217095</c:v>
+                  <c:v>0.1389204357804813</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.4277716344903054</c:v>
+                  <c:v>0.1348956539147465</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.4476202405514652</c:v>
+                  <c:v>0.1309874727371453</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.4673993529950938</c:v>
+                  <c:v>0.1271925152818524</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.4870422845394708</c:v>
+                  <c:v>0.1235075021568877</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.5064855845579296</c:v>
+                  <c:v>0.1199292487755309</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.525669714849496</c:v>
+                  <c:v>0.1164546626550453</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.544539600778114</c:v>
+                  <c:v>0.1130807407836172</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.5630450543106071</c:v>
+                  <c:v>0.1098045670557534</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.5811410704338282</c:v>
+                  <c:v>0.1066233097758875</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.5987880026310382</c:v>
+                  <c:v>0.1035342192295648</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.6159516264368219</c:v>
+                  <c:v>0.1005346253212986</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.6326031025365474</c:v>
+                  <c:v>0.09762193527798396</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.6487188524617681</c:v>
+                  <c:v>0.09479363141660588</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.6642803607355867</c:v>
+                  <c:v>0.09204726897487542</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.6792739174511409</c:v>
+                  <c:v>0.08938047400335694</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.6936903148472016</c:v>
+                  <c:v>0.0867909413176054</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.707524510606046</c:v>
+                  <c:v>0.08427643250880966</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.7207752694630136</c:v>
+                  <c:v>0.08183477401142902</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.7334447933949167</c:v>
+                  <c:v>0.07946385522631395</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.7455383492401262</c:v>
+                  <c:v>0.07716162669781422</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.7570639011734568</c:v>
+                  <c:v>0.07492609834339634</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.7680317540732073</c:v>
+                  <c:v>0.07275533773431637</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.7784542125188754</c:v>
+                  <c:v>0.07064746842592097</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.7883452589748756</c:v>
+                  <c:v>0.06860066833617967</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.7977202536647329</c:v>
+                  <c:v>0.06661316817108273</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.8065956577287077</c:v>
+                  <c:v>0.06468324989557146</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.8149887804852479</c:v>
+                  <c:v>0.06280924524870107</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.8229175509772071</c:v>
+                  <c:v>0.06098953430176951</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.8304003134679188</c:v>
+                  <c:v>0.05922254405817916</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.8374556461481736</c:v>
+                  <c:v>0.0575067470938314</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.8441022020099627</c:v>
+                  <c:v>0.0558406602368868</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.8503585706232913</c:v>
+                  <c:v>0.05422284328575586</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.8562431594055122</c:v>
+                  <c:v>0.05265189776421712</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.8617740928863058</c:v>
+                  <c:v>0.05112646571259021</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.8669691284345074</c:v>
+                  <c:v>0.04964522851392193</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.8718455869154498</c:v>
+                  <c:v>0.04820690575417288</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.8764202967806126</c:v>
+                  <c:v>0.04681025411542136</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.8807095501475704</c:v>
+                  <c:v>0.04545406630112894</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.8847290695011308</c:v>
+                  <c:v>0.04413716999253995</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.8884939837307995</c:v>
+                  <c:v>0.04285842683531359</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.8920188123109293</c:v>
+                  <c:v>0.04161673145551325</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.8953174565245956</c:v>
+                  <c:v>0.04041101050410303</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.8984031967275909</c:v>
+                  <c:v>0.03924022172912595</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.9012886947428207</c:v>
+                  <c:v>0.03810335307476202</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.9039860005661959</c:v>
+                  <c:v>0.03699942180648765</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.9065065626516974</c:v>
+                  <c:v>0.03592747366158042</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.9088612411248398</c:v>
+                  <c:v>0.03488658202423499</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.911060323349803</c:v>
+                  <c:v>0.03387584712457715</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.9131135413457536</c:v>
+                  <c:v>0.03289439526088388</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.9150300906122909</c:v>
+                  <c:v>0.03194137804433697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,9 +2133,12 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$F$4</c:f>
+              <c:f>'Решение'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2453,10 +2459,313 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$F$5:$F$105</c:f>
+              <c:f>'Решение'!$E$5:$E$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.4205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4371204799564518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4534294229726087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4693982541330015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4850075433627738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5002449008414084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5151033403035185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5295800066654242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.543675187325088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5573915443245387</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5707335184590155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5837068672386314</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5963183070362367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6085752363188138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6204855219715155</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6320573347045078</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6432990226332083</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6542190145371054</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6648257461828052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6751276045614333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6851328860310236</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6948497652427219</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.7042862724213262</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7134502771093473</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7223494769032471</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7309913900371691</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73938335092384</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7475325079603946</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7554458230610965</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.763130072499011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.7705918487321715</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7778375629625627</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.7848734482328925</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.7917055629102201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.7983397944398161</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.8047818632793298</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.8110373269441001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.8171115841105954</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.8230098787375149</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.8287373041738401</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8342988072306883</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.8396991921996992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.8449431248052366</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.850035136081209</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8549796261660421</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.8597808680114328</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.8644430110021341</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.8689700844852607</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8733660012085543</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.8776345606677642</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.8817794523638472</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.8858042589710953</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.8897124594175996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.8935074318796798</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.8971924566920595</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.9007707191756756</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.9042453123850789</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.907619239777417</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9108954178050129</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9140766784335472</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.9171657715878416</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.9201653675272186</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.9230780591523797</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.9259063642457135</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.9286527276469017</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.931319523365654</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.9339090566333578</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.9364235658953829</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.9388652247457424</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.9412361438057605</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.943538372548357</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.9457739010695154</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.9479446618084543</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.9500525312179849</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.9520993313864913</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.9540868316129311</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.9560167499362167</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.9578907546202942</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.9597104655962029</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.9614774558623609</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.9631932528442846</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9648593397149174</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.966477156676709</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9680481022065502</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.9695735342646432</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.9710547714683473</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.9724930942320182</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.9738897458738242</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.9752459336904954</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.976562830000937</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9778415731596063</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.9790832685405304</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9802889894928157</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9814597782684744</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.9825966469233691</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.9837005781920569</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.9847725263372861</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.9858134179748823</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.9868241528747355</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.9878056047385808</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.9887586219552461</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2906,7 +3215,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2942,36 +3251,36 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2989,35 +3298,35 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3025,16 +3334,16 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.5702</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3042,16 +3351,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.9871513372513766</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.00257842333032134</v>
+        <v>0.0233642578125</v>
       </c>
       <c r="D6">
-        <v>0.009309711472052102</v>
+        <v>0.5602152622310482</v>
       </c>
       <c r="E6">
-        <v>0.00096052794625</v>
+        <v>0.4371204799564518</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3059,16 +3368,16 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.98443739640928</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.004569663172925394</v>
+        <v>0.01819628477096558</v>
       </c>
       <c r="D7">
-        <v>0.00911472875983175</v>
+        <v>0.5490742922564258</v>
       </c>
       <c r="E7">
-        <v>0.001878211657962947</v>
+        <v>0.4534294229726087</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3076,16 +3385,16 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.9817327297619569</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.006193200918336978</v>
+        <v>0.01417142295395024</v>
       </c>
       <c r="D8">
-        <v>0.00927878936939429</v>
+        <v>0.5371303229130484</v>
       </c>
       <c r="E8">
-        <v>0.002795279950311929</v>
+        <v>0.4693982541330015</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3093,16 +3402,16 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.978945856251537</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.007598174830930384</v>
+        <v>0.01103682598220246</v>
       </c>
       <c r="D9">
-        <v>0.009713100175435389</v>
+        <v>0.5246556306550239</v>
       </c>
       <c r="E9">
-        <v>0.003742868742097405</v>
+        <v>0.4850075433627738</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3110,16 +3419,16 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.9760073522419717</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.008886848952569509</v>
+        <v>0.008595574922662559</v>
       </c>
       <c r="D10">
-        <v>0.01036085784059939</v>
+        <v>0.5118595242359292</v>
       </c>
       <c r="E10">
-        <v>0.004744940964859567</v>
+        <v>0.5002449008414084</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3127,16 +3436,16 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.9728619043309289</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01013026258347003</v>
+        <v>0.006694307617991593</v>
       </c>
       <c r="D11">
-        <v>0.01118690035779879</v>
+        <v>0.49890235207849</v>
       </c>
       <c r="E11">
-        <v>0.005820932727802373</v>
+        <v>0.5151033403035185</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3144,16 +3453,16 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.9694629902014503</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01137867790652886</v>
+        <v>0.005213584302097944</v>
       </c>
       <c r="D12">
-        <v>0.01217078421969338</v>
+        <v>0.4859064090324779</v>
       </c>
       <c r="E12">
-        <v>0.006987547672327519</v>
+        <v>0.5295800066654242</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3161,16 +3470,16 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0.965769312943796</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01266855559414075</v>
+        <v>0.004060384258713975</v>
       </c>
       <c r="D13">
-        <v>0.01330215014509369</v>
+        <v>0.4729644284161981</v>
       </c>
       <c r="E13">
-        <v>0.008259981316969651</v>
+        <v>0.543675187325088</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3178,16 +3487,16 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0.9617424126950564</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01402720619636118</v>
+        <v>0.003162262154613667</v>
       </c>
       <c r="D14">
-        <v>0.0145776174528831</v>
+        <v>0.4601461935208477</v>
       </c>
       <c r="E14">
-        <v>0.009652763655699283</v>
+        <v>0.5573915443245387</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3195,16 +3504,16 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0.9573450753788435</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01547588074566934</v>
+        <v>0.002462796941703515</v>
       </c>
       <c r="D15">
-        <v>0.01599869817663457</v>
+        <v>0.4475036845992811</v>
       </c>
       <c r="E15">
-        <v>0.01118034569885257</v>
+        <v>0.5707335184590155</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3212,16 +3521,16 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.9525402880109333</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01703180892208135</v>
+        <v>0.001918047422859915</v>
       </c>
       <c r="D16">
-        <v>0.01757038936802502</v>
+        <v>0.4350750853385088</v>
       </c>
       <c r="E16">
-        <v>0.01285751369896031</v>
+        <v>0.5837068672386314</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3229,16 +3538,16 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>0.9472905764032739</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01870952324523593</v>
+        <v>0.001493791816143343</v>
       </c>
       <c r="D17">
-        <v>0.01930021373438904</v>
+        <v>0.42288790114762</v>
       </c>
       <c r="E17">
-        <v>0.01469968661710108</v>
+        <v>0.5963183070362367</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3246,16 +3555,16 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>0.9415576189018255</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02052169437959813</v>
+        <v>0.001163377903685855</v>
       </c>
       <c r="D18">
-        <v>0.02119755333367635</v>
+        <v>0.4109613857775004</v>
       </c>
       <c r="E18">
-        <v>0.01672313338489986</v>
+        <v>0.6085752363188138</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3263,16 +3572,16 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.9353020686263862</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02247962688363889</v>
+        <v>0.0009060487091694038</v>
       </c>
       <c r="D19">
-        <v>0.02327317083982424</v>
+        <v>0.3993084293193152</v>
       </c>
       <c r="E19">
-        <v>0.01894513365015058</v>
+        <v>0.6204855219715155</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3280,16 +3589,16 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0.9284835428167495</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02459351413886922</v>
+        <v>0.0007056385210572261</v>
       </c>
       <c r="D20">
-        <v>0.02553884612324104</v>
+        <v>0.3879370267744351</v>
       </c>
       <c r="E20">
-        <v>0.02138409692114014</v>
+        <v>0.6320573347045078</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3297,16 +3606,16 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0.9210607554357475</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02687251750465831</v>
+        <v>0.000549557344280408</v>
       </c>
       <c r="D21">
-        <v>0.02800707807506958</v>
+        <v>0.3768514200225114</v>
       </c>
       <c r="E21">
-        <v>0.02405964898452446</v>
+        <v>0.6432990226332083</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3314,16 +3623,16 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>0.9129917808102832</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02932471248981187</v>
+        <v>0.0004279999824840092</v>
       </c>
       <c r="D22">
-        <v>0.03069081644303403</v>
+        <v>0.3660529854804107</v>
       </c>
       <c r="E22">
-        <v>0.02699269025687075</v>
+        <v>0.6542190145371054</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3331,16 +3640,16 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>0.9042344435255583</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03195693029311911</v>
+        <v>0.0003333300644833958</v>
       </c>
       <c r="D23">
-        <v>0.03360319844175397</v>
+        <v>0.3555409237527115</v>
       </c>
       <c r="E23">
-        <v>0.0302054277395685</v>
+        <v>0.6648257461828052</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3348,16 +3657,16 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>0.8947468341037031</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03477451405647571</v>
+        <v>0.0002596003187749103</v>
       </c>
       <c r="D24">
-        <v>0.03675727175292631</v>
+        <v>0.3453127951197918</v>
       </c>
       <c r="E24">
-        <v>0.03372138008689474</v>
+        <v>0.6751276045614333</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3365,16 +3674,16 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0.8844879518446579</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03778100402890783</v>
+        <v>0.0002021789592021396</v>
       </c>
       <c r="D25">
-        <v>0.04016569041092433</v>
+        <v>0.3353649350097743</v>
       </c>
       <c r="E25">
-        <v>0.03756535371550991</v>
+        <v>0.6851328860310236</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3382,16 +3691,16 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>0.8734184759498933</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.04097776352985835</v>
+        <v>0.000157458710902057</v>
       </c>
       <c r="D26">
-        <v>0.04384037379365952</v>
+        <v>0.325692776046376</v>
       </c>
       <c r="E26">
-        <v>0.04176338672658882</v>
+        <v>0.6948497652427219</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3399,16 +3708,16 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0.8615016638770975</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.04436355744255151</v>
+        <v>0.0001226301972113188</v>
       </c>
       <c r="D27">
-        <v>0.04779212208616718</v>
+        <v>0.3162910973814624</v>
       </c>
       <c r="E27">
-        <v>0.04634265659418384</v>
+        <v>0.7042862724213262</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3416,16 +3725,16 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>0.8487043718814954</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.04793409648757803</v>
+        <v>9.550545144143236E-05</v>
       </c>
       <c r="D28">
-        <v>0.05203018457135807</v>
+        <v>0.3071542174392112</v>
       </c>
       <c r="E28">
-        <v>0.05133134705956853</v>
+        <v>0.7134502771093473</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3433,16 +3742,16 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>0.8349981869594026</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.05168156335335189</v>
+        <v>7.438046633256085E-05</v>
       </c>
       <c r="D29">
-        <v>0.05656178022633093</v>
+        <v>0.2982761426304202</v>
       </c>
       <c r="E29">
-        <v>0.05675846946091458</v>
+        <v>0.7223494769032471</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3450,16 +3759,16 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>0.8203606520357248</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.0555941405526315</v>
+        <v>5.792814638693094E-05</v>
       </c>
       <c r="D30">
-        <v>0.06139157356634826</v>
+        <v>0.2896506818164439</v>
       </c>
       <c r="E30">
-        <v>0.06265363384529547</v>
+        <v>0.7309913900371691</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3467,16 +3776,16 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.8047765574446522</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.05965556426071992</v>
+        <v>4.511493822614984E-05</v>
       </c>
       <c r="D31">
-        <v>0.06652111259842421</v>
+        <v>0.2812715341379338</v>
       </c>
       <c r="E31">
-        <v>0.06904676569620384</v>
+        <v>0.73938335092384</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3484,16 +3793,16 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0.7882392619129951</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.06384473292442974</v>
+        <v>3.513590159702587E-05</v>
       </c>
       <c r="D32">
-        <v>0.07194824015028436</v>
+        <v>0.2731323561380083</v>
       </c>
       <c r="E32">
-        <v>0.0759677650122909</v>
+        <v>0.7475325079603946</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3501,16 +3810,16 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.7707519959397352</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.06813540356372795</v>
+        <v>2.73641421129181E-05</v>
       </c>
       <c r="D33">
-        <v>0.0776664946588673</v>
+        <v>0.2652268127967904</v>
       </c>
       <c r="E33">
-        <v>0.08344610583766962</v>
+        <v>0.7554458230610965</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3518,16 +3827,16 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>0.7523290904702505</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.07249601176712696</v>
+        <v>2.13114290381369E-05</v>
       </c>
       <c r="D34">
-        <v>0.08366452155822143</v>
+        <v>0.2575486160719507</v>
       </c>
       <c r="E34">
-        <v>0.0915103762044011</v>
+        <v>0.763130072499011</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3535,16 +3844,16 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0.7329970651083463</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.07688965267164451</v>
+        <v>1.659752407999431E-05</v>
       </c>
       <c r="D35">
-        <v>0.08992552140626307</v>
+        <v>0.2500915537437484</v>
       </c>
       <c r="E35">
-        <v>0.1001877608137462</v>
+        <v>0.7705918487321715</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3552,16 +3861,16 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>0.7127955039918153</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0.08127425895482006</v>
+        <v>1.292629438847213E-05</v>
       </c>
       <c r="D36">
-        <v>0.09642676542409598</v>
+        <v>0.2428495107430487</v>
       </c>
       <c r="E36">
-        <v>0.1095034716292687</v>
+        <v>0.7778375629625627</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3569,16 +3878,16 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>0.6917776451637117</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.08560300734679271</v>
+        <v>1.00671091550845E-05</v>
       </c>
       <c r="D37">
-        <v>0.1031392126789418</v>
+        <v>0.2358164846579523</v>
       </c>
       <c r="E37">
-        <v>0.1194801348105539</v>
+        <v>0.7848734482328925</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3586,16 +3895,16 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>0.670010612033191</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.08982497687118852</v>
+        <v>7.840351124199109E-06</v>
       </c>
       <c r="D38">
-        <v>0.1100272651408322</v>
+        <v>0.2289865967386556</v>
       </c>
       <c r="E38">
-        <v>0.1301371459547883</v>
+        <v>0.7917055629102201</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3603,16 +3912,16 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>0.6475752243268605</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0.09388606973746641</v>
+        <v>6.10613283354374E-06</v>
       </c>
       <c r="D39">
-        <v>0.1170486966867776</v>
+        <v>0.2223540994273503</v>
       </c>
       <c r="E39">
-        <v>0.1414900092488955</v>
+        <v>0.7983397944398161</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3620,16 +3929,16 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>0.6245653413216684</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.09773018977835043</v>
+        <v>4.755508725342902E-06</v>
       </c>
       <c r="D40">
-        <v>0.1241547892759538</v>
+        <v>0.2159133812119448</v>
       </c>
       <c r="E40">
-        <v>0.1535496796240273</v>
+        <v>0.8047818632793298</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3637,16 +3946,16 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>0.6010867120047153</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.1013006543513916</v>
+        <v>3.703631062950161E-06</v>
       </c>
       <c r="D41">
-        <v>0.1312907035873507</v>
+        <v>0.2096589694248367</v>
       </c>
       <c r="E41">
-        <v>0.1663219300565422</v>
+        <v>0.8110373269441001</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3654,16 +3963,16 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>0.5772553341960039</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.1045417950915083</v>
+        <v>2.884419699905033E-06</v>
       </c>
       <c r="D42">
-        <v>0.1383961022550394</v>
+        <v>0.2035855314697046</v>
       </c>
       <c r="E42">
-        <v>0.1798067684574482</v>
+        <v>0.8171115841105954</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3671,16 +3980,16 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>0.5531953558040541</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.1074006827317944</v>
+        <v>2.246410850267836E-06</v>
       </c>
       <c r="D43">
-        <v>0.1454060316445221</v>
+        <v>0.1976878748516347</v>
       </c>
       <c r="E43">
-        <v>0.1939979298196292</v>
+        <v>0.8230098787375149</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3688,16 +3997,16 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>0.5290365836834777</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.1098288936842449</v>
+        <v>1.749524075281835E-06</v>
       </c>
       <c r="D44">
-        <v>0.1522520534613545</v>
+        <v>0.1919609463020845</v>
       </c>
       <c r="E44">
-        <v>0.2088824691709228</v>
+        <v>0.8287373041738401</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3705,16 +4014,16 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>0.5049116958989623</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.1117842235528415</v>
+        <v>1.362544384802015E-06</v>
       </c>
       <c r="D45">
-        <v>0.1588636013377519</v>
+        <v>0.1863998302249268</v>
       </c>
       <c r="E45">
-        <v>0.2244404792104441</v>
+        <v>0.8342988072306883</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3722,16 +4031,16 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <v>0.4809532782663904</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.1132322473260842</v>
+        <v>1.061161276249616E-06</v>
       </c>
       <c r="D46">
-        <v>0.1651695212085341</v>
+        <v>0.1809997466390244</v>
       </c>
       <c r="E46">
-        <v>0.2406449531989911</v>
+        <v>0.8396991921996992</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3739,16 +4048,16 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <v>0.4572908228244346</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.1141476291027845</v>
+        <v>8.264415212979188E-07</v>
       </c>
       <c r="D47">
-        <v>0.1710997392848923</v>
+        <v>0.175756048753242</v>
       </c>
       <c r="E47">
-        <v>0.2574618087878884</v>
+        <v>0.8449431248052366</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3756,16 +4065,16 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <v>0.4340478321439801</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.1145150963168465</v>
+        <v>6.436397590186429E-07</v>
       </c>
       <c r="D48">
-        <v>0.1765869893232679</v>
+        <v>0.1706642202790319</v>
       </c>
       <c r="E48">
-        <v>0.2748500822159053</v>
+        <v>0.850035136081209</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3773,16 +4082,16 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>0.4113391680287889</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.1143300138699364</v>
+        <v>5.012721756028981E-07</v>
       </c>
       <c r="D49">
-        <v>0.1815685230593441</v>
+        <v>0.1657198725617822</v>
       </c>
       <c r="E49">
-        <v>0.2927622950419304</v>
+        <v>0.8549796261660421</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3790,16 +4099,16 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>0.3892687665097151</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.1135985205419123</v>
+        <v>3.903950781672961E-07</v>
       </c>
       <c r="D50">
-        <v>0.185987725153257</v>
+        <v>0.1609187415934889</v>
       </c>
       <c r="E50">
-        <v>0.3111449877951155</v>
+        <v>0.8597808680114328</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3807,16 +4116,16 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>0.3679278147839097</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.1123372207881086</v>
+        <v>3.040430418343932E-07</v>
       </c>
       <c r="D51">
-        <v>0.1897955572543761</v>
+        <v>0.156256684954824</v>
       </c>
       <c r="E51">
-        <v>0.3299394071736054</v>
+        <v>0.8644430110021341</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3824,16 +4133,16 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>0.3473934527434859</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0.110572456273385</v>
+        <v>2.367913338505162E-07</v>
       </c>
       <c r="D52">
-        <v>0.1929517646986322</v>
+        <v>0.1517296787234054</v>
       </c>
       <c r="E52">
-        <v>0.3490823262844966</v>
+        <v>0.8689700844852607</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3841,16 +4150,16 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <v>0.3277280255329512</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0.1083392099128477</v>
+        <v>1.844151257283073E-07</v>
       </c>
       <c r="D53">
-        <v>0.1954257931320957</v>
+        <v>0.1473338143763198</v>
       </c>
       <c r="E53">
-        <v>0.3685069714221051</v>
+        <v>0.8733660012085543</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3858,16 +4167,16 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <v>0.3089788779066327</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0.1056797179157219</v>
+        <v>1.436240847346925E-07</v>
       </c>
       <c r="D54">
-        <v>0.1971973797218178</v>
+        <v>0.143065295708151</v>
       </c>
       <c r="E54">
-        <v>0.3881440244558275</v>
+        <v>0.8776345606677642</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3875,16 +4184,16 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <v>0.2911786494051482</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0.102641880340691</v>
+        <v>1.118556714608567E-07</v>
       </c>
       <c r="D55">
-        <v>0.1982568029324511</v>
+        <v>0.1389204357804813</v>
       </c>
       <c r="E55">
-        <v>0.4079226673217095</v>
+        <v>0.8817794523638472</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3892,16 +4201,16 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>0.2743460041250718</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.09927756703225869</v>
+        <v>8.71141581933918E-08</v>
       </c>
       <c r="D56">
-        <v>0.1986047943523639</v>
+        <v>0.1348956539147465</v>
       </c>
       <c r="E56">
-        <v>0.4277716344903054</v>
+        <v>0.8858042589710953</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3909,16 +4218,16 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <v>0.2584867116633884</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.09564091370279916</v>
+        <v>6.784525503831051E-08</v>
       </c>
       <c r="D57">
-        <v>0.198252134082347</v>
+        <v>0.1309874727371453</v>
       </c>
       <c r="E57">
-        <v>0.4476202405514652</v>
+        <v>0.8897124594175996</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3926,16 +4235,16 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <v>0.2435949871154154</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0.09178669350851459</v>
+        <v>5.283846766899671E-08</v>
       </c>
       <c r="D58">
-        <v>0.197218966380976</v>
+        <v>0.1271925152818524</v>
       </c>
       <c r="E58">
-        <v>0.4673993529950938</v>
+        <v>0.8935074318796798</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3943,16 +4252,16 @@
         <v>54</v>
       </c>
       <c r="B59">
-        <v>0.2296549972381994</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.0877688345797894</v>
+        <v>4.115105270119617E-08</v>
       </c>
       <c r="D59">
-        <v>0.1955338836425401</v>
+        <v>0.1235075021568877</v>
       </c>
       <c r="E59">
-        <v>0.4870422845394708</v>
+        <v>0.8971924566920595</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3960,16 +4269,16 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.2166424457614858</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0.08363913578599538</v>
+        <v>3.204879348555073E-08</v>
       </c>
       <c r="D60">
-        <v>0.1932328338945891</v>
+        <v>0.1199292487755309</v>
       </c>
       <c r="E60">
-        <v>0.5064855845579296</v>
+        <v>0.9007707191756756</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3977,16 +4286,16 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0.2045261615954726</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.07944621371961332</v>
+        <v>2.495987578586593E-08</v>
       </c>
       <c r="D61">
-        <v>0.1903579098354179</v>
+        <v>0.1164546626550453</v>
       </c>
       <c r="E61">
-        <v>0.525669714849496</v>
+        <v>0.9042453123850789</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3994,16 +4303,16 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>0.1932696274719887</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.07523469537757584</v>
+        <v>1.943896576096492E-08</v>
       </c>
       <c r="D62">
-        <v>0.1869560763723213</v>
+        <v>0.1130807407836172</v>
       </c>
       <c r="E62">
-        <v>0.544539600778114</v>
+        <v>0.907619239777417</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4011,16 +4320,16 @@
         <v>58</v>
       </c>
       <c r="B63">
-        <v>0.1828324016022831</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0.07104465474909318</v>
+        <v>1.513923358825149E-08</v>
       </c>
       <c r="D63">
-        <v>0.1830778893380165</v>
+        <v>0.1098045670557534</v>
       </c>
       <c r="E63">
-        <v>0.5630450543106071</v>
+        <v>0.9108954178050129</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4028,16 +4337,16 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <v>0.1731713997691817</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.06691127841119322</v>
+        <v>1.179056522131891E-08</v>
       </c>
       <c r="D64">
-        <v>0.1787762513857967</v>
+        <v>0.1066233097758875</v>
       </c>
       <c r="E64">
-        <v>0.5811410704338282</v>
+        <v>0.9140766784335472</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4045,16 +4354,16 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <v>0.1642420188037843</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.06286473569487613</v>
+        <v>9.182593519533038E-09</v>
       </c>
       <c r="D65">
-        <v>0.1741052428703014</v>
+        <v>0.1035342192295648</v>
       </c>
       <c r="E65">
-        <v>0.5987880026310382</v>
+        <v>0.9171657715878416</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4062,16 +4371,16 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>0.1559990939350155</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0.05893022299053643</v>
+        <v>7.151482745925388E-09</v>
       </c>
       <c r="D66">
-        <v>0.1691190566376261</v>
+        <v>0.1005346253212986</v>
       </c>
       <c r="E66">
-        <v>0.6159516264368219</v>
+        <v>0.9201653675272186</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4079,16 +4388,16 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>0.1483976917127704</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0.05512814896411362</v>
+        <v>5.56963622058154E-09</v>
       </c>
       <c r="D67">
-        <v>0.1638710567865685</v>
+        <v>0.09762193527798396</v>
       </c>
       <c r="E67">
-        <v>0.6326031025365474</v>
+        <v>0.9230780591523797</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4096,16 +4405,16 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>0.1413937470516187</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0.05147442730868038</v>
+        <v>4.337680552650174E-09</v>
       </c>
       <c r="D68">
-        <v>0.1584129731779327</v>
+        <v>0.09479363141660588</v>
       </c>
       <c r="E68">
-        <v>0.6487188524617681</v>
+        <v>0.9259063642457135</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4113,16 +4422,16 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <v>0.134944557590153</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0.04798084552453902</v>
+        <v>3.378222891346205E-09</v>
       </c>
       <c r="D69">
-        <v>0.1527942361497211</v>
+        <v>0.09204726897487542</v>
       </c>
       <c r="E69">
-        <v>0.6642803607355867</v>
+        <v>0.9286527276469017</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4130,16 +4439,16 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>0.129009151307876</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0.04465548146870641</v>
+        <v>2.630989019383397E-09</v>
       </c>
       <c r="D70">
-        <v>0.1470614497722767</v>
+        <v>0.08938047400335694</v>
       </c>
       <c r="E70">
-        <v>0.6792739174511409</v>
+        <v>0.931319523365654</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4147,16 +4456,16 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <v>0.1235485445444792</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0.04150314346741084</v>
+        <v>2.049036858357675E-09</v>
       </c>
       <c r="D71">
-        <v>0.1412579971409083</v>
+        <v>0.0867909413176054</v>
       </c>
       <c r="E71">
-        <v>0.6936903148472016</v>
+        <v>0.9339090566333578</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4164,16 +4473,16 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>0.1185259075917921</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0.0385258141651624</v>
+        <v>1.595807514199459E-09</v>
       </c>
       <c r="D72">
-        <v>0.1354237676369994</v>
+        <v>0.08427643250880966</v>
       </c>
       <c r="E72">
-        <v>0.707524510606046</v>
+        <v>0.9364235658953829</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4181,16 +4490,16 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0.113906654216622</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0.03572308262416053</v>
+        <v>1.242828606029364E-09</v>
       </c>
       <c r="D73">
-        <v>0.1295949936962037</v>
+        <v>0.08183477401142902</v>
       </c>
       <c r="E73">
-        <v>0.7207752694630136</v>
+        <v>0.9388652247457424</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4198,16 +4507,16 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <v>0.1096584701166522</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0.03309255323027899</v>
+        <v>9.679255989340014E-10</v>
       </c>
       <c r="D74">
-        <v>0.123804183258152</v>
+        <v>0.07946385522631395</v>
       </c>
       <c r="E74">
-        <v>0.7334447933949167</v>
+        <v>0.9412361438057605</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4215,16 +4524,16 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>0.1057512936497337</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0.03063022354552796</v>
+        <v>7.538287745604162E-10</v>
       </c>
       <c r="D75">
-        <v>0.118080133564612</v>
+        <v>0.07716162669781422</v>
       </c>
       <c r="E75">
-        <v>0.7455383492401262</v>
+        <v>0.943538372548357</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4232,16 +4541,16 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>0.1021572603919172</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0.02833082629021584</v>
+        <v>5.870883278436835E-10</v>
       </c>
       <c r="D76">
-        <v>0.1124480121444101</v>
+        <v>0.07492609834339634</v>
       </c>
       <c r="E76">
-        <v>0.7570639011734568</v>
+        <v>0.9457739010695154</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4249,16 +4558,16 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>0.09885062130321912</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0.02618813312022046</v>
+        <v>4.572294350149781E-10</v>
       </c>
       <c r="D77">
-        <v>0.1069294915033529</v>
+        <v>0.07275533773431637</v>
       </c>
       <c r="E77">
-        <v>0.7680317540732073</v>
+        <v>0.9479446618084543</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4266,16 +4575,16 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>0.09580764260099391</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0.02419521980785297</v>
+        <v>3.560942133051221E-10</v>
       </c>
       <c r="D78">
-        <v>0.1015429250722777</v>
+        <v>0.07064746842592097</v>
       </c>
       <c r="E78">
-        <v>0.7784542125188754</v>
+        <v>0.9500525312179849</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4283,16 +4592,16 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>0.09300649391273982</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0.02234469388812876</v>
+        <v>2.773292335066747E-10</v>
       </c>
       <c r="D79">
-        <v>0.09630355322425568</v>
+        <v>0.06860066833617967</v>
       </c>
       <c r="E79">
-        <v>0.7883452589748756</v>
+        <v>0.9520993313864913</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4300,16 +4609,16 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>0.0904271299306139</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0.02062888686012799</v>
+        <v>2.159863903530987E-10</v>
       </c>
       <c r="D80">
-        <v>0.09122372954452514</v>
+        <v>0.06661316817108273</v>
       </c>
       <c r="E80">
-        <v>0.7977202536647329</v>
+        <v>0.9540868316129311</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4317,16 +4626,16 @@
         <v>76</v>
       </c>
       <c r="B81">
-        <v>0.08805116962715821</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.01904001370537651</v>
+        <v>1.682120569400354E-10</v>
       </c>
       <c r="D81">
-        <v>0.08631315893875753</v>
+        <v>0.06468324989557146</v>
       </c>
       <c r="E81">
-        <v>0.8065956577287077</v>
+        <v>0.9560167499362167</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4334,16 +4643,16 @@
         <v>77</v>
       </c>
       <c r="B82">
-        <v>0.08586177611105919</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0.01757030287067974</v>
+        <v>1.310049955172639E-10</v>
       </c>
       <c r="D82">
-        <v>0.08157914053301306</v>
+        <v>0.06280924524870107</v>
       </c>
       <c r="E82">
-        <v>0.8149887804852479</v>
+        <v>0.9578907546202942</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4351,16 +4660,16 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>0.08384353939032287</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.01621210002531077</v>
+        <v>1.020278163330253E-10</v>
       </c>
       <c r="D83">
-        <v>0.07702680960715917</v>
+        <v>0.06098953430176951</v>
       </c>
       <c r="E83">
-        <v>0.8229175509772071</v>
+        <v>0.9597104655962029</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4368,16 +4677,16 @@
         <v>79</v>
       </c>
       <c r="B84">
-        <v>0.08198236365069356</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0.01495794889809888</v>
+        <v>7.946014016170676E-11</v>
       </c>
       <c r="D84">
-        <v>0.07265937398328867</v>
+        <v>0.05922254405817916</v>
       </c>
       <c r="E84">
-        <v>0.8304003134679188</v>
+        <v>0.9614774558623609</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4385,16 +4694,16 @@
         <v>80</v>
       </c>
       <c r="B85">
-        <v>0.08026536013020971</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0.01380065237649618</v>
+        <v>6.188424001851674E-11</v>
       </c>
       <c r="D85">
-        <v>0.06847834134512035</v>
+        <v>0.0575067470938314</v>
       </c>
       <c r="E85">
-        <v>0.8374556461481736</v>
+        <v>0.9631932528442846</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4402,16 +4711,16 @@
         <v>81</v>
       </c>
       <c r="B86">
-        <v>0.07868074625709423</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0.01273331684626912</v>
+        <v>4.81959779441085E-11</v>
       </c>
       <c r="D86">
-        <v>0.06448373488667378</v>
+        <v>0.0558406602368868</v>
       </c>
       <c r="E86">
-        <v>0.8441022020099627</v>
+        <v>0.9648593397149174</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4419,16 +4728,16 @@
         <v>82</v>
       </c>
       <c r="B87">
-        <v>0.07721775139933922</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0.01174938249819993</v>
+        <v>3.753544180705716E-11</v>
       </c>
       <c r="D87">
-        <v>0.06067429547916929</v>
+        <v>0.05422284328575586</v>
       </c>
       <c r="E87">
-        <v>0.8503585706232913</v>
+        <v>0.966477156676709</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4436,16 +4745,16 @@
         <v>83</v>
       </c>
       <c r="B88">
-        <v>0.07586652933364471</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.01084264205106782</v>
+        <v>2.923292464953914E-11</v>
       </c>
       <c r="D88">
-        <v>0.05704766920977508</v>
+        <v>0.05265189776421712</v>
       </c>
       <c r="E88">
-        <v>0.8562431594055122</v>
+        <v>0.9680481022065502</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4453,16 +4762,16 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <v>0.07461807736405084</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.01000725005606155</v>
+        <v>2.276685293750729E-11</v>
       </c>
       <c r="D89">
-        <v>0.05360057969358166</v>
+        <v>0.05112646571259021</v>
       </c>
       <c r="E89">
-        <v>0.8617740928863058</v>
+        <v>0.9695735342646432</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4470,16 +4779,16 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>0.07346416189394778</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0.009237724669415102</v>
+        <v>1.773102072037311E-11</v>
       </c>
       <c r="D90">
-        <v>0.05032898500212965</v>
+        <v>0.04964522851392193</v>
       </c>
       <c r="E90">
-        <v>0.8669691284345074</v>
+        <v>0.9710547714683473</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4487,16 +4796,16 @@
         <v>86</v>
       </c>
       <c r="B91">
-        <v>0.07239725016841661</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.008528943516121011</v>
+        <v>1.380907131298589E-11</v>
       </c>
       <c r="D91">
-        <v>0.04722821940001245</v>
+        <v>0.04820690575417288</v>
       </c>
       <c r="E91">
-        <v>0.8718455869154498</v>
+        <v>0.9724930942320182</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4504,16 +4813,16 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <v>0.07141044784811874</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0.007876135023509938</v>
+        <v>1.075462341026001E-11</v>
       </c>
       <c r="D92">
-        <v>0.04429312034775854</v>
+        <v>0.04681025411542136</v>
       </c>
       <c r="E92">
-        <v>0.8764202967806126</v>
+        <v>0.9738897458738242</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4521,16 +4830,16 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <v>0.07049744204390536</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0.007274866382291408</v>
+        <v>8.375793134455429E-12</v>
       </c>
       <c r="D93">
-        <v>0.04151814142623273</v>
+        <v>0.04545406630112894</v>
       </c>
       <c r="E93">
-        <v>0.8807095501475704</v>
+        <v>0.9752459336904954</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4538,16 +4847,16 @@
         <v>89</v>
       </c>
       <c r="B94">
-        <v>0.06965244942705165</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0.006721029095516015</v>
+        <v>6.523139672586138E-12</v>
       </c>
       <c r="D94">
-        <v>0.0388974519763014</v>
+        <v>0.04413716999253995</v>
       </c>
       <c r="E94">
-        <v>0.8847290695011308</v>
+        <v>0.976562830000937</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4555,16 +4864,16 @@
         <v>90</v>
       </c>
       <c r="B95">
-        <v>0.06887016902882055</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0.006210822902740361</v>
+        <v>5.080277235241646E-12</v>
       </c>
       <c r="D95">
-        <v>0.03642502433763953</v>
+        <v>0.04285842683531359</v>
       </c>
       <c r="E95">
-        <v>0.8884939837307995</v>
+        <v>0.9778415731596063</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4572,16 +4881,16 @@
         <v>91</v>
       </c>
       <c r="B96">
-        <v>0.06814573935120846</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0.005740738716465791</v>
+        <v>3.956563569438684E-12</v>
       </c>
       <c r="D96">
-        <v>0.03409470962139641</v>
+        <v>0.04161673145551325</v>
       </c>
       <c r="E96">
-        <v>0.8920188123109293</v>
+        <v>0.9790832685405304</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4589,16 +4898,16 @@
         <v>92</v>
       </c>
       <c r="B97">
-        <v>0.06747469942532373</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0.005307541079131752</v>
+        <v>3.081405709597022E-12</v>
       </c>
       <c r="D97">
-        <v>0.03190030297094882</v>
+        <v>0.04041101050410303</v>
       </c>
       <c r="E97">
-        <v>0.8953174565245956</v>
+        <v>0.9802889894928157</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4606,16 +4915,16 @@
         <v>93</v>
       </c>
       <c r="B98">
-        <v>0.06685295347266984</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0.004908250539702282</v>
+        <v>2.399825247464478E-12</v>
       </c>
       <c r="D98">
-        <v>0.02983559926003686</v>
+        <v>0.03924022172912595</v>
       </c>
       <c r="E98">
-        <v>0.8984031967275909</v>
+        <v>0.9814597782684744</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4623,16 +4932,16 @@
         <v>94</v>
       </c>
       <c r="B99">
-        <v>0.06627673884595738</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>0.004540126257171408</v>
+        <v>1.869004526223556E-12</v>
       </c>
       <c r="D99">
-        <v>0.02789444015405046</v>
+        <v>0.03810335307476202</v>
       </c>
       <c r="E99">
-        <v>0.9012886947428207</v>
+        <v>0.9825966469233691</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4640,16 +4949,16 @@
         <v>95</v>
       </c>
       <c r="B100">
-        <v>0.06574259694869103</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0.004200649062090962</v>
+        <v>1.455596786780552E-12</v>
       </c>
       <c r="D100">
-        <v>0.02607075342302195</v>
+        <v>0.03699942180648765</v>
       </c>
       <c r="E100">
-        <v>0.9039860005661959</v>
+        <v>0.9837005781920569</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4657,16 +4966,16 @@
         <v>96</v>
       </c>
       <c r="B101">
-        <v>0.06524734685574382</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0.003887505144518238</v>
+        <v>1.133631286579581E-12</v>
       </c>
       <c r="D101">
-        <v>0.02435858534804042</v>
+        <v>0.03592747366158042</v>
       </c>
       <c r="E101">
-        <v>0.9065065626516974</v>
+        <v>0.9847725263372861</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4674,16 +4983,16 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>0.06478806137978028</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>0.003598570485736738</v>
+        <v>8.828817881320465E-13</v>
       </c>
       <c r="D102">
-        <v>0.02275212700964302</v>
+        <v>0.03488658202423499</v>
       </c>
       <c r="E102">
-        <v>0.9088612411248398</v>
+        <v>0.9858134179748823</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4691,16 +5000,16 @@
         <v>98</v>
       </c>
       <c r="B103">
-        <v>0.06436204535026539</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0.003331896110019466</v>
+        <v>6.875959238626045E-13</v>
       </c>
       <c r="D103">
-        <v>0.02124573518991192</v>
+        <v>0.03387584712457715</v>
       </c>
       <c r="E103">
-        <v>0.911060323349803</v>
+        <v>0.9868241528747355</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4708,16 +5017,16 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <v>0.06396681589259386</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0.003085694200047092</v>
+        <v>5.355056145316672E-13</v>
       </c>
       <c r="D104">
-        <v>0.01983394856160521</v>
+        <v>0.03289439526088388</v>
       </c>
       <c r="E104">
-        <v>0.9131135413457536</v>
+        <v>0.9878056047385808</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4725,16 +5034,16 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <v>0.06360008451441029</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0.00285832509400193</v>
+        <v>4.170563745986372E-13</v>
       </c>
       <c r="D105">
-        <v>0.01851149977929666</v>
+        <v>0.03194137804433697</v>
       </c>
       <c r="E105">
-        <v>0.9150300906122909</v>
+        <v>0.9887586219552461</v>
       </c>
     </row>
   </sheetData>

--- a/arch/SEIR.xlsx
+++ b/arch/SEIR.xlsx
@@ -43,13 +43,13 @@
     <t>M₀ (материнский иммунитет)</t>
   </si>
   <si>
-    <t>0.0000</t>
+    <t>0.9902</t>
   </si>
   <si>
-    <t>0.5702</t>
+    <t>0.0056</t>
   </si>
   <si>
-    <t>0.4205</t>
+    <t>0.0042</t>
   </si>
   <si>
     <t>0.03</t>
@@ -70,10 +70,10 @@
     <t>μ (выход из изоляции)</t>
   </si>
   <si>
-    <t>0.1340</t>
+    <t>0.0841</t>
   </si>
   <si>
-    <t>0.0294</t>
+    <t>0.0259</t>
   </si>
   <si>
     <t>0.25</t>
@@ -538,307 +538,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.9902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.9894525085730222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.9882289056277663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.9866303716444719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.9847293707059124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.9825774125797698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.9802107399353536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.9776544822527861</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.9749256833507599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.9720355049801562</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.9689908295861003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.9657954259437127</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.9624507973419097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.958956799571099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.9553120922156045</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.9515144694034124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.947561103526441</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.9434487262510741</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.9391737644591145</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.9347324439095456</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.9301208698914162</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.9253350915831249</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.9203711549780413</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.9152251478879481</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.9098932395542501</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.9043717166807731</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.8986570171776617</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.892745762520105</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.8866347893397767</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.8803211806530878</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.8738022969684885</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.867075807390621</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.8601397207417362</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.8529924166430379</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.8456326764352905</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.838059713765509</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.8302732046223853</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.8222733165657109</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.8140607368634878</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.8056366992241781</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.7970030087904931</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.7881620650453406</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.7791168822702996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.7698711071926105</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.7604290334585577</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.7507956125796654</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.7409764610136746</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.7309778630650769</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.7208067693202042</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.7104707903695071</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>0.699978185614539</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.68933784700893</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>0.6785592776407415</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.667652565127253</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.65662834986149</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.645497788221473</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.6342725109269171</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.6229645768024339</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>0.6115864222795865</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>0.600150807040735</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>0.5886707562738042</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>0.5771595000672293</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>0.565630410526834</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>0.5540969372398339</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>0.5425725417443131</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>0.5310706316844152</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>0.5196044953414185</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>0.5081872372284588</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>0.4968317154218612</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>0.4855504812751463</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>0.474355722123404</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>0.463259207536808</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>0.4522722396238021</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>0.4414056078183606</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>0.4306695485133568</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>0.4200737098252203</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>0.4096271216955721</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>0.3993381714552166</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>0.3892145848965513</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>0.3792634128237971</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>0.3694910229779804</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>0.3599030971666633</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>0.3505046333681097</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>0.3412999525267795</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>0.3322927097123626</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>0.3234859092783686</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>0.3148819236286952</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>0.3064825151815026</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>0.2982888611088133</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>0.2903015804270535</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>0.282520763017636</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>0.2749460001669048</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>0.2675764162305271</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>0.2604107010478471</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>0.2534471427559596</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>0.2466836606804357</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>0.2401178380089144</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>0.2337469539843927</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>0.227568015386265</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>0.2215777870983671</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>0.215772821593898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,304 +1183,304 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0233642578125</c:v>
+                  <c:v>0.02403579402969365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01819628477096558</c:v>
+                  <c:v>0.01980981091845515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01417142295395024</c:v>
+                  <c:v>0.01684868450656616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01103682598220246</c:v>
+                  <c:v>0.01480898927577863</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.008595574922662559</c:v>
+                  <c:v>0.01344167649245626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.006694307617991593</c:v>
+                  <c:v>0.01256620077732377</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.005213584302097944</c:v>
+                  <c:v>0.01205171737634156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.004060384258713975</c:v>
+                  <c:v>0.01180342837454346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.003162262154613667</c:v>
+                  <c:v>0.01175267308320309</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.002462796941703515</c:v>
+                  <c:v>0.01184973832859159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.001918047422859915</c:v>
+                  <c:v>0.01205864315082738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.001493791816143343</c:v>
+                  <c:v>0.01235335602134974</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.001163377903685855</c:v>
+                  <c:v>0.01271505104207475</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0009060487091694038</c:v>
+                  <c:v>0.01313011751288446</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0007056385210572261</c:v>
+                  <c:v>0.01358871567453834</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.000549557344280408</c:v>
+                  <c:v>0.0140837283701031</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0004279999824840092</c:v>
+                  <c:v>0.01460999968194871</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0003333300644833958</c:v>
+                  <c:v>0.0151637815679264</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0002596003187749103</c:v>
+                  <c:v>0.01574233125066557</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0002021789592021396</c:v>
+                  <c:v>0.01634361786929842</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.000157458710902057</c:v>
+                  <c:v>0.01696610832538456</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0001226301972113188</c:v>
+                  <c:v>0.01760861053592764</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.550545144143236e-05</c:v>
+                  <c:v>0.01827015831041475</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.438046633256085e-05</c:v>
+                  <c:v>0.01894992642241922</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.792814638693094e-05</c:v>
+                  <c:v>0.01964716760374766</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.511493822614984e-05</c:v>
+                  <c:v>0.02036116547962042</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.513590159702587e-05</c:v>
+                  <c:v>0.02109119912553929</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.73641421129181e-05</c:v>
+                  <c:v>0.02183651613319674</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.13114290381369e-05</c:v>
+                  <c:v>0.02259631194926703</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.659752407999431e-05</c:v>
+                  <c:v>0.02336971388791723</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.292629438847213e-05</c:v>
+                  <c:v>0.02415576868108981</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.00671091550845e-05</c:v>
+                  <c:v>0.02495343276760323</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.840351124199109e-06</c:v>
+                  <c:v>0.02576156476731093</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.10613283354374e-06</c:v>
+                  <c:v>0.0265789197648391</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.755508725342902e-06</c:v>
+                  <c:v>0.02740414515676595</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.703631062950161e-06</c:v>
+                  <c:v>0.02823577790948311</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.884419699905033e-06</c:v>
+                  <c:v>0.02907224314173449</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.246410850267836e-06</c:v>
+                  <c:v>0.02991185399268153</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.749524075281835e-06</c:v>
+                  <c:v>0.03075281276812042</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.362544384802015e-06</c:v>
+                  <c:v>0.03159321337763782</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.061161276249616e-06</c:v>
+                  <c:v>0.03243104508652359</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.264415212979188e-07</c:v>
+                  <c:v>0.03326419760995627</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.436397590186429e-07</c:v>
+                  <c:v>0.0340904675746523</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.012721756028981e-07</c:v>
+                  <c:v>0.03490756636580736</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.903950781672961e-07</c:v>
+                  <c:v>0.0357131293655282</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.040430418343932e-07</c:v>
+                  <c:v>0.0365047265736954</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.367913338505162e-07</c:v>
+                  <c:v>0.03727987458388346</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.844151257283073e-07</c:v>
+                  <c:v>0.03803604986614254</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.436240847346925e-07</c:v>
+                  <c:v>0.03877070328567176</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.118556714608567e-07</c:v>
+                  <c:v>0.03948127576227056</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.71141581933918e-08</c:v>
+                  <c:v>0.04016521495056398</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.784525503831051e-08</c:v>
+                  <c:v>0.04081999279602445</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.283846766899671e-08</c:v>
+                  <c:v>0.04144312379745684</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.115105270119617e-08</c:v>
+                  <c:v>0.04203218378360492</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.204879348555073e-08</c:v>
+                  <c:v>0.04258482899061551</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.495987578586593e-08</c:v>
+                  <c:v>0.04309881520899507</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.943896576096492e-08</c:v>
+                  <c:v>0.04357201675411281</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.513923358825149e-08</c:v>
+                  <c:v>0.04400244500389013</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.179056522131891e-08</c:v>
+                  <c:v>0.04438826624163059</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.182593519533038e-09</c:v>
+                  <c:v>0.04472781854144138</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.151482745925388e-09</c:v>
+                  <c:v>0.04501962743869845</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.56963622058154e-09</c:v>
+                  <c:v>0.04526242013868317</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.337680552650174e-09</c:v>
+                  <c:v>0.04545513803287086</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.378222891346205e-09</c:v>
+                  <c:v>0.04559694731420543</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.630989019383397e-09</c:v>
+                  <c:v>0.04568724750969713</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.049036858357675e-09</c:v>
+                  <c:v>0.04572567778030148</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.595807514199459e-09</c:v>
+                  <c:v>0.04571212087358818</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.242828606029364e-09</c:v>
+                  <c:v>0.04564670465335447</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.679255989340014e-10</c:v>
+                  <c:v>0.04552980117113144</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.538287745604162e-10</c:v>
+                  <c:v>0.04536202328644159</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.870883278436835e-10</c:v>
+                  <c:v>0.04514421888461363</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.572294350149781e-10</c:v>
+                  <c:v>0.04487746278185938</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.560942133051221e-10</c:v>
+                  <c:v>0.04456304644611352</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.773292335066747e-10</c:v>
+                  <c:v>0.04420246569784436</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.159863903530987e-10</c:v>
+                  <c:v>0.04379740658678288</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.682120569400354e-10</c:v>
+                  <c:v>0.04334972966754445</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.310049955172639e-10</c:v>
+                  <c:v>0.04286145291884543</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.020278163330253e-10</c:v>
+                  <c:v>0.04233473356703902</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.946014016170676e-11</c:v>
+                  <c:v>0.04177184908478542</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.188424001851674e-11</c:v>
+                  <c:v>0.04117517763979538</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.81959779441085e-11</c:v>
+                  <c:v>0.04054717826688557</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.753544180705716e-11</c:v>
+                  <c:v>0.03989037102936938</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.923292464953914e-11</c:v>
+                  <c:v>0.03920731742353348</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.276685293750729e-11</c:v>
+                  <c:v>0.03850060126319917</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.773102072037311e-11</c:v>
+                  <c:v>0.0377728102608108</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.380907131298589e-11</c:v>
+                  <c:v>0.03702651849787306</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.075462341026001e-11</c:v>
+                  <c:v>0.03626426995164852</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.375793134455429e-12</c:v>
+                  <c:v>0.03548856321761054</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.523139672586138e-12</c:v>
+                  <c:v>0.03470183753898622</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.080277235241646e-12</c:v>
+                  <c:v>0.03390646022654042</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.956563569438684e-12</c:v>
+                  <c:v>0.03310471552420201</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.081405709597022e-12</c:v>
+                  <c:v>0.0322987949497965</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.399825247464478e-12</c:v>
+                  <c:v>0.03149078911551716</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.869004526223556e-12</c:v>
+                  <c:v>0.03068268101023477</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.455596786780552e-12</c:v>
+                  <c:v>0.02987634070561346</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.133631286579581e-12</c:v>
+                  <c:v>0.0290735214304715</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8.828817881320465e-13</c:v>
+                  <c:v>0.0282758569430126</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.875959238626045e-13</c:v>
+                  <c:v>0.02748486011848729</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.355056145316672e-13</c:v>
+                  <c:v>0.02670192266047999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.170563745986372e-13</c:v>
+                  <c:v>0.02592831583724889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,307 +1822,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.5702</c:v>
+                  <c:v>0.0056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5602152622310482</c:v>
+                  <c:v>0.01207912942373655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5490742922564258</c:v>
+                  <c:v>0.01714763419953502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5371303229130484</c:v>
+                  <c:v>0.02120873232341965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5246556306550239</c:v>
+                  <c:v>0.02455547797579549</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5118595242359292</c:v>
+                  <c:v>0.02740100378256086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49890235207849</c:v>
+                  <c:v>0.02990047729733078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4859064090324779</c:v>
+                  <c:v>0.0321670336252799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4729644284161981</c:v>
+                  <c:v>0.03428333255070652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4601461935208477</c:v>
+                  <c:v>0.03630993945097993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4475036845992811</c:v>
+                  <c:v>0.03829140153528622</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4350750853385088</c:v>
+                  <c:v>0.04026065224756997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.42288790114762</c:v>
+                  <c:v>0.04224220308231697</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4109613857775004</c:v>
+                  <c:v>0.04425445595247612</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3993084293193152</c:v>
+                  <c:v>0.04631137770154906</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3879370267744351</c:v>
+                  <c:v>0.04842371192918259</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3768514200225114</c:v>
+                  <c:v>0.05059985512377239</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3660529854804107</c:v>
+                  <c:v>0.05284648916287505</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3555409237527115</c:v>
+                  <c:v>0.05516903691662303</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3453127951197918</c:v>
+                  <c:v>0.05757198933098145</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3353649350097743</c:v>
+                  <c:v>0.06005913906110406</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.325692776046376</c:v>
+                  <c:v>0.0626337460809703</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3162910973814624</c:v>
+                  <c:v>0.06529865370658883</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3071542174392112</c:v>
+                  <c:v>0.0680563684060861</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2982761426304202</c:v>
+                  <c:v>0.07090911310164331</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2896506818164439</c:v>
+                  <c:v>0.07385886101184883</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2812715341379338</c:v>
+                  <c:v>0.07690735516052986</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2731323561380083</c:v>
+                  <c:v>0.0800561172879715</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2652268127967904</c:v>
+                  <c:v>0.0833064488965269</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.2575486160719507</c:v>
+                  <c:v>0.08665942643905467</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2500915537437484</c:v>
+                  <c:v>0.09011589213857843</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2428495107430487</c:v>
+                  <c:v>0.09367644155532751</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2358164846579523</c:v>
+                  <c:v>0.09734140875243423</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.2289865967386556</c:v>
+                  <c:v>0.1011108497246358</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2223540994273503</c:v>
+                  <c:v>0.1049845246239597</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.2159133812119448</c:v>
+                  <c:v>0.1089618792269542</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.2096589694248367</c:v>
+                  <c:v>0.1130420260281257</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.2035855314697046</c:v>
+                  <c:v>0.1172237253054619</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1976878748516347</c:v>
+                  <c:v>0.1215053664800157</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1919609463020845</c:v>
+                  <c:v>0.1258849500778398</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1863998302249268</c:v>
+                  <c:v>0.1303600705955761</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1809997466390244</c:v>
+                  <c:v>0.1349279005679862</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.175756048753242</c:v>
+                  <c:v>0.1395851761345622</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1706642202790319</c:v>
+                  <c:v>0.1443281844013714</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1657198725617822</c:v>
+                  <c:v>0.1491527528921208</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1609187415934889</c:v>
+                  <c:v>0.1540542413779482</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.156256684954824</c:v>
+                  <c:v>0.1590275363677536</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1517296787234054</c:v>
+                  <c:v>0.1640670485292313</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1473338143763198</c:v>
+                  <c:v>0.1691667132945669</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.143065295708151</c:v>
+                  <c:v>0.1743199948835855</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1389204357804813</c:v>
+                  <c:v>0.1795198939507034</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1348956539147465</c:v>
+                  <c:v>0.1847589590302105</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1309874727371453</c:v>
+                  <c:v>0.1900293019172289</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1271925152818524</c:v>
+                  <c:v>0.1953226170793697</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1235075021568877</c:v>
+                  <c:v>0.2006302051469974</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1199292487755309</c:v>
+                  <c:v>0.2059430004786808</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1164546626550453</c:v>
+                  <c:v>0.2112516027435514</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1130807407836172</c:v>
+                  <c:v>0.2165463124047982</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1098045670557534</c:v>
+                  <c:v>0.2218171699294071</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1066233097758875</c:v>
+                  <c:v>0.2270539984896491</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1035342192295648</c:v>
+                  <c:v>0.2322464498629754</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1005346253212986</c:v>
+                  <c:v>0.2373840531801848</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.09762193527798396</c:v>
+                  <c:v>0.2424562661183267</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.09479363141660588</c:v>
+                  <c:v>0.247452528086106</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.09204726897487542</c:v>
+                  <c:v>0.2523623149068253</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.08938047400335694</c:v>
+                  <c:v>0.2571751944683034</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0867909413176054</c:v>
+                  <c:v>0.2618808827817724</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.08427643250880966</c:v>
+                  <c:v>0.2664692998733247</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.08183477401142902</c:v>
+                  <c:v>0.2709306249227005</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.07946385522631395</c:v>
+                  <c:v>0.2752553500654704</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.07716162669781422</c:v>
+                  <c:v>0.2794343322861307</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.07492609834339634</c:v>
+                  <c:v>0.2834588428511668</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.07275533773431637</c:v>
+                  <c:v>0.2873206137623726</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.07064746842592097</c:v>
+                  <c:v>0.2910118807510017</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.06860066833617967</c:v>
+                  <c:v>0.2945254223817949</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.06661316817108273</c:v>
+                  <c:v>0.2978545948914962</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.06468324989557146</c:v>
+                  <c:v>0.3009933624478762</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.06280924524870107</c:v>
+                  <c:v>0.3039363225811478</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.06098953430176951</c:v>
+                  <c:v>0.3066787266084962</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.05922254405817916</c:v>
+                  <c:v>0.3092164949427494</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0575067470938314</c:v>
+                  <c:v>0.3115462272464674</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0558406602368868</c:v>
+                  <c:v>0.3136652074614792</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.05422284328575586</c:v>
+                  <c:v>0.3155714038097768</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.05265189776421712</c:v>
+                  <c:v>0.3172634639234523</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.05112646571259021</c:v>
+                  <c:v>0.3187407053179656</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.04964522851392193</c:v>
+                  <c:v>0.3200031014735654</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.04820690575417288</c:v>
+                  <c:v>0.321051263833458</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.04681025411542136</c:v>
+                  <c:v>0.3218864200638428</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.04545406630112894</c:v>
+                  <c:v>0.322510388949929</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.04413716999253995</c:v>
+                  <c:v>0.322925552323425</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.04285842683531359</c:v>
+                  <c:v>0.3231348244308577</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.04161673145551325</c:v>
+                  <c:v>0.323141619158701</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.04041101050410303</c:v>
+                  <c:v>0.3229498155310832</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.03924022172912595</c:v>
+                  <c:v>0.3225637218893441</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.03810335307476202</c:v>
+                  <c:v>0.3219880391505515</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.03699942180648765</c:v>
+                  <c:v>0.3212278235249705</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.03592747366158042</c:v>
+                  <c:v>0.3202884490511478</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.03488658202423499</c:v>
+                  <c:v>0.3191755702825012</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.03387584712457715</c:v>
+                  <c:v>0.3178950854318468</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.03289439526088388</c:v>
+                  <c:v>0.3164531002509007</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.03194137804433697</c:v>
+                  <c:v>0.3148558928911617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2464,307 +2464,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.4205</c:v>
+                  <c:v>0.0042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4371204799564518</c:v>
+                  <c:v>0.004432567973547474</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4534294229726087</c:v>
+                  <c:v>0.004813649254243414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4693982541330015</c:v>
+                  <c:v>0.005312211525542195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4850075433627738</c:v>
+                  <c:v>0.005906162042513333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5002449008414084</c:v>
+                  <c:v>0.006579907145212834</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5151033403035185</c:v>
+                  <c:v>0.007322581989991665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5295800066654242</c:v>
+                  <c:v>0.008126766745592288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.543675187325088</c:v>
+                  <c:v>0.008987555723989911</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5573915443245387</c:v>
+                  <c:v>0.009901882485660589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5707335184590155</c:v>
+                  <c:v>0.01086803055002175</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5837068672386314</c:v>
+                  <c:v>0.01188527865788976</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5963183070362367</c:v>
+                  <c:v>0.01295364355442332</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6085752363188138</c:v>
+                  <c:v>0.01407369343434991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6204855219715155</c:v>
+                  <c:v>0.01524641256996173</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.6320573347045078</c:v>
+                  <c:v>0.01647310299286639</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6432990226332083</c:v>
+                  <c:v>0.01775531297968328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6542190145371054</c:v>
+                  <c:v>0.01909478490410184</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6648257461828052</c:v>
+                  <c:v>0.02049341705633575</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6751276045614333</c:v>
+                  <c:v>0.02195323550880706</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6851328860310236</c:v>
+                  <c:v>0.02347637317818093</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6948497652427219</c:v>
+                  <c:v>0.02506505401051985</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7042862724213262</c:v>
+                  <c:v>0.02672158077944179</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7134502771093473</c:v>
+                  <c:v>0.02844832539555073</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7223494769032471</c:v>
+                  <c:v>0.030247720921687</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7309913900371691</c:v>
+                  <c:v>0.03212225470363</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.73938335092384</c:v>
+                  <c:v>0.03407446218218764</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.7475325079603946</c:v>
+                  <c:v>0.03610692106638382</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7554458230610965</c:v>
+                  <c:v>0.03822224563049926</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.763130072499011</c:v>
+                  <c:v>0.04042308095859001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.7705918487321715</c:v>
+                  <c:v>0.04271209700501535</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7778375629625627</c:v>
+                  <c:v>0.04509198237296132</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.7848734482328925</c:v>
+                  <c:v>0.04756543773822597</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.7917055629102201</c:v>
+                  <c:v>0.05013516886501499</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.7983397944398161</c:v>
+                  <c:v>0.05280387917591033</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.8047818632793298</c:v>
+                  <c:v>0.05557426185077048</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.8110373269441001</c:v>
+                  <c:v>0.05844899144000566</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.8171115841105954</c:v>
+                  <c:v>0.06143071498709247</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.8230098787375149</c:v>
+                  <c:v>0.06452204266381485</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.8287373041738401</c:v>
+                  <c:v>0.06772553792986148</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.8342988072306883</c:v>
+                  <c:v>0.07104370723629282</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.8396991921996992</c:v>
+                  <c:v>0.07447898930014946</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.8449431248052366</c:v>
+                  <c:v>0.0780337439851818</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.850035136081209</c:v>
+                  <c:v>0.08171024083136563</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.8549796261660421</c:v>
+                  <c:v>0.08551064728351396</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.8597808680114328</c:v>
+                  <c:v>0.08943701667685798</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.8644430110021341</c:v>
+                  <c:v>0.09349127604487623</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.8689700844852607</c:v>
+                  <c:v>0.09767521382180815</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.8733660012085543</c:v>
+                  <c:v>0.1019904675190863</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.8776345606677642</c:v>
+                  <c:v>0.1064385114612356</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.8817794523638472</c:v>
+                  <c:v>0.111020644672487</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.8858042589710953</c:v>
+                  <c:v>0.1157379790102955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.8897124594175996</c:v>
+                  <c:v>0.120591427646005</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.8935074318796798</c:v>
+                  <c:v>0.1255816939959203</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.8971924566920595</c:v>
+                  <c:v>0.1307092612079076</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.9007707191756756</c:v>
+                  <c:v>0.1359743823092306</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.9042453123850789</c:v>
+                  <c:v>0.1413770711205364</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.907619239777417</c:v>
+                  <c:v>0.146917094038655</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.9108954178050129</c:v>
+                  <c:v>0.1525939627871163</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.9140766784335472</c:v>
+                  <c:v>0.1584069282279853</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.9171657715878416</c:v>
+                  <c:v>0.1643549753217789</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.9201653675272186</c:v>
+                  <c:v>0.1704368193138873</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.9230780591523797</c:v>
+                  <c:v>0.176650903216156</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.9259063642457135</c:v>
+                  <c:v>0.1829953966411891</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.9286527276469017</c:v>
+                  <c:v>0.189468196034656</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.931319523365654</c:v>
+                  <c:v>0.1960669263375841</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.9339090566333578</c:v>
+                  <c:v>0.2027889440965075</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.9364235658953829</c:v>
+                  <c:v>0.2096313420246281</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.9388652247457424</c:v>
+                  <c:v>0.2165909550020837</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.9412361438057605</c:v>
+                  <c:v>0.2236643674882516</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.943538372548357</c:v>
+                  <c:v>0.2308479223040234</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.9457739010695154</c:v>
+                  <c:v>0.2381377307274113</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.9479446618084543</c:v>
+                  <c:v>0.2455296838319658</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.9500525312179849</c:v>
+                  <c:v>0.253019464984524</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.9520993313864913</c:v>
+                  <c:v>0.2606025634070038</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.9540868316129311</c:v>
+                  <c:v>0.2682742886965004</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.9560167499362167</c:v>
+                  <c:v>0.276029786189007</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.9578907546202942</c:v>
+                  <c:v>0.2838640530447901</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.9597104655962029</c:v>
+                  <c:v>0.2917719549279134</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.9614774558623609</c:v>
+                  <c:v>0.2997482431486679</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.9631932528442846</c:v>
+                  <c:v>0.3077875721357567</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.9648593397149174</c:v>
+                  <c:v>0.3158845171049718</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.966477156676709</c:v>
+                  <c:v>0.324033591792744</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.9680481022065502</c:v>
+                  <c:v>0.3322292661262347</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.9695735342646432</c:v>
+                  <c:v>0.3404659837064725</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.9710547714683473</c:v>
+                  <c:v>0.3487381789872551</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.9724930942320182</c:v>
+                  <c:v>0.3570402940399737</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.9738897458738242</c:v>
+                  <c:v>0.365366794803006</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.9752459336904954</c:v>
+                  <c:v>0.3737121867236471</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.976562830000937</c:v>
+                  <c:v>0.3820710297105352</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.9778415731596063</c:v>
+                  <c:v>0.3904379523249658</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.9790832685405304</c:v>
+                  <c:v>0.398807665150192</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.9802889894928157</c:v>
+                  <c:v>0.407174973288593</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.9814597782684744</c:v>
+                  <c:v>0.4155347879472916</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.9825966469233691</c:v>
+                  <c:v>0.423882137083254</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.9837005781920569</c:v>
+                  <c:v>0.4322121750889802</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.9847725263372861</c:v>
+                  <c:v>0.4405201915094663</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.9858134179748823</c:v>
+                  <c:v>0.4488016187900934</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.9868241528747355</c:v>
+                  <c:v>0.4570520390634008</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.9878056047385808</c:v>
+                  <c:v>0.4652671899902521</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.9887586219552461</c:v>
+                  <c:v>0.4734429696776914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,16 +3334,16 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9902</v>
       </c>
       <c r="C5">
         <v>0.03</v>
       </c>
       <c r="D5">
-        <v>0.5702</v>
+        <v>0.0056</v>
       </c>
       <c r="E5">
-        <v>0.4205</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3351,16 +3351,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.9894525085730222</v>
       </c>
       <c r="C6">
-        <v>0.0233642578125</v>
+        <v>0.02403579402969365</v>
       </c>
       <c r="D6">
-        <v>0.5602152622310482</v>
+        <v>0.01207912942373655</v>
       </c>
       <c r="E6">
-        <v>0.4371204799564518</v>
+        <v>0.004432567973547474</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3368,16 +3368,16 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.9882289056277663</v>
       </c>
       <c r="C7">
-        <v>0.01819628477096558</v>
+        <v>0.01980981091845515</v>
       </c>
       <c r="D7">
-        <v>0.5490742922564258</v>
+        <v>0.01714763419953502</v>
       </c>
       <c r="E7">
-        <v>0.4534294229726087</v>
+        <v>0.004813649254243414</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3385,16 +3385,16 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.9866303716444719</v>
       </c>
       <c r="C8">
-        <v>0.01417142295395024</v>
+        <v>0.01684868450656616</v>
       </c>
       <c r="D8">
-        <v>0.5371303229130484</v>
+        <v>0.02120873232341965</v>
       </c>
       <c r="E8">
-        <v>0.4693982541330015</v>
+        <v>0.005312211525542195</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3402,16 +3402,16 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.9847293707059124</v>
       </c>
       <c r="C9">
-        <v>0.01103682598220246</v>
+        <v>0.01480898927577863</v>
       </c>
       <c r="D9">
-        <v>0.5246556306550239</v>
+        <v>0.02455547797579549</v>
       </c>
       <c r="E9">
-        <v>0.4850075433627738</v>
+        <v>0.005906162042513333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3419,16 +3419,16 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.9825774125797698</v>
       </c>
       <c r="C10">
-        <v>0.008595574922662559</v>
+        <v>0.01344167649245626</v>
       </c>
       <c r="D10">
-        <v>0.5118595242359292</v>
+        <v>0.02740100378256086</v>
       </c>
       <c r="E10">
-        <v>0.5002449008414084</v>
+        <v>0.006579907145212834</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3436,16 +3436,16 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.9802107399353536</v>
       </c>
       <c r="C11">
-        <v>0.006694307617991593</v>
+        <v>0.01256620077732377</v>
       </c>
       <c r="D11">
-        <v>0.49890235207849</v>
+        <v>0.02990047729733078</v>
       </c>
       <c r="E11">
-        <v>0.5151033403035185</v>
+        <v>0.007322581989991665</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3453,16 +3453,16 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.9776544822527861</v>
       </c>
       <c r="C12">
-        <v>0.005213584302097944</v>
+        <v>0.01205171737634156</v>
       </c>
       <c r="D12">
-        <v>0.4859064090324779</v>
+        <v>0.0321670336252799</v>
       </c>
       <c r="E12">
-        <v>0.5295800066654242</v>
+        <v>0.008126766745592288</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3470,16 +3470,16 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.9749256833507599</v>
       </c>
       <c r="C13">
-        <v>0.004060384258713975</v>
+        <v>0.01180342837454346</v>
       </c>
       <c r="D13">
-        <v>0.4729644284161981</v>
+        <v>0.03428333255070652</v>
       </c>
       <c r="E13">
-        <v>0.543675187325088</v>
+        <v>0.008987555723989911</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3487,16 +3487,16 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.9720355049801562</v>
       </c>
       <c r="C14">
-        <v>0.003162262154613667</v>
+        <v>0.01175267308320309</v>
       </c>
       <c r="D14">
-        <v>0.4601461935208477</v>
+        <v>0.03630993945097993</v>
       </c>
       <c r="E14">
-        <v>0.5573915443245387</v>
+        <v>0.009901882485660589</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3504,16 +3504,16 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.9689908295861003</v>
       </c>
       <c r="C15">
-        <v>0.002462796941703515</v>
+        <v>0.01184973832859159</v>
       </c>
       <c r="D15">
-        <v>0.4475036845992811</v>
+        <v>0.03829140153528622</v>
       </c>
       <c r="E15">
-        <v>0.5707335184590155</v>
+        <v>0.01086803055002175</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3521,16 +3521,16 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.9657954259437127</v>
       </c>
       <c r="C16">
-        <v>0.001918047422859915</v>
+        <v>0.01205864315082738</v>
       </c>
       <c r="D16">
-        <v>0.4350750853385088</v>
+        <v>0.04026065224756997</v>
       </c>
       <c r="E16">
-        <v>0.5837068672386314</v>
+        <v>0.01188527865788976</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3538,16 +3538,16 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.9624507973419097</v>
       </c>
       <c r="C17">
-        <v>0.001493791816143343</v>
+        <v>0.01235335602134974</v>
       </c>
       <c r="D17">
-        <v>0.42288790114762</v>
+        <v>0.04224220308231697</v>
       </c>
       <c r="E17">
-        <v>0.5963183070362367</v>
+        <v>0.01295364355442332</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3555,16 +3555,16 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.958956799571099</v>
       </c>
       <c r="C18">
-        <v>0.001163377903685855</v>
+        <v>0.01271505104207475</v>
       </c>
       <c r="D18">
-        <v>0.4109613857775004</v>
+        <v>0.04425445595247612</v>
       </c>
       <c r="E18">
-        <v>0.6085752363188138</v>
+        <v>0.01407369343434991</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3572,16 +3572,16 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.9553120922156045</v>
       </c>
       <c r="C19">
-        <v>0.0009060487091694038</v>
+        <v>0.01313011751288446</v>
       </c>
       <c r="D19">
-        <v>0.3993084293193152</v>
+        <v>0.04631137770154906</v>
       </c>
       <c r="E19">
-        <v>0.6204855219715155</v>
+        <v>0.01524641256996173</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3589,16 +3589,16 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.9515144694034124</v>
       </c>
       <c r="C20">
-        <v>0.0007056385210572261</v>
+        <v>0.01358871567453834</v>
       </c>
       <c r="D20">
-        <v>0.3879370267744351</v>
+        <v>0.04842371192918259</v>
       </c>
       <c r="E20">
-        <v>0.6320573347045078</v>
+        <v>0.01647310299286639</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3606,16 +3606,16 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.947561103526441</v>
       </c>
       <c r="C21">
-        <v>0.000549557344280408</v>
+        <v>0.0140837283701031</v>
       </c>
       <c r="D21">
-        <v>0.3768514200225114</v>
+        <v>0.05059985512377239</v>
       </c>
       <c r="E21">
-        <v>0.6432990226332083</v>
+        <v>0.01775531297968328</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3623,16 +3623,16 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.9434487262510741</v>
       </c>
       <c r="C22">
-        <v>0.0004279999824840092</v>
+        <v>0.01460999968194871</v>
       </c>
       <c r="D22">
-        <v>0.3660529854804107</v>
+        <v>0.05284648916287505</v>
       </c>
       <c r="E22">
-        <v>0.6542190145371054</v>
+        <v>0.01909478490410184</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3640,16 +3640,16 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.9391737644591145</v>
       </c>
       <c r="C23">
-        <v>0.0003333300644833958</v>
+        <v>0.0151637815679264</v>
       </c>
       <c r="D23">
-        <v>0.3555409237527115</v>
+        <v>0.05516903691662303</v>
       </c>
       <c r="E23">
-        <v>0.6648257461828052</v>
+        <v>0.02049341705633575</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3657,16 +3657,16 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.9347324439095456</v>
       </c>
       <c r="C24">
-        <v>0.0002596003187749103</v>
+        <v>0.01574233125066557</v>
       </c>
       <c r="D24">
-        <v>0.3453127951197918</v>
+        <v>0.05757198933098145</v>
       </c>
       <c r="E24">
-        <v>0.6751276045614333</v>
+        <v>0.02195323550880706</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3674,16 +3674,16 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.9301208698914162</v>
       </c>
       <c r="C25">
-        <v>0.0002021789592021396</v>
+        <v>0.01634361786929842</v>
       </c>
       <c r="D25">
-        <v>0.3353649350097743</v>
+        <v>0.06005913906110406</v>
       </c>
       <c r="E25">
-        <v>0.6851328860310236</v>
+        <v>0.02347637317818093</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3691,16 +3691,16 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.9253350915831249</v>
       </c>
       <c r="C26">
-        <v>0.000157458710902057</v>
+        <v>0.01696610832538456</v>
       </c>
       <c r="D26">
-        <v>0.325692776046376</v>
+        <v>0.0626337460809703</v>
       </c>
       <c r="E26">
-        <v>0.6948497652427219</v>
+        <v>0.02506505401051985</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3708,16 +3708,16 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.9203711549780413</v>
       </c>
       <c r="C27">
-        <v>0.0001226301972113188</v>
+        <v>0.01760861053592764</v>
       </c>
       <c r="D27">
-        <v>0.3162910973814624</v>
+        <v>0.06529865370658883</v>
       </c>
       <c r="E27">
-        <v>0.7042862724213262</v>
+        <v>0.02672158077944179</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3725,16 +3725,16 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.9152251478879481</v>
       </c>
       <c r="C28">
-        <v>9.550545144143236E-05</v>
+        <v>0.01827015831041475</v>
       </c>
       <c r="D28">
-        <v>0.3071542174392112</v>
+        <v>0.0680563684060861</v>
       </c>
       <c r="E28">
-        <v>0.7134502771093473</v>
+        <v>0.02844832539555073</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3742,16 +3742,16 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.9098932395542501</v>
       </c>
       <c r="C29">
-        <v>7.438046633256085E-05</v>
+        <v>0.01894992642241922</v>
       </c>
       <c r="D29">
-        <v>0.2982761426304202</v>
+        <v>0.07090911310164331</v>
       </c>
       <c r="E29">
-        <v>0.7223494769032471</v>
+        <v>0.030247720921687</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3759,16 +3759,16 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.9043717166807731</v>
       </c>
       <c r="C30">
-        <v>5.792814638693094E-05</v>
+        <v>0.01964716760374766</v>
       </c>
       <c r="D30">
-        <v>0.2896506818164439</v>
+        <v>0.07385886101184883</v>
       </c>
       <c r="E30">
-        <v>0.7309913900371691</v>
+        <v>0.03212225470363</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3776,16 +3776,16 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.8986570171776617</v>
       </c>
       <c r="C31">
-        <v>4.511493822614984E-05</v>
+        <v>0.02036116547962042</v>
       </c>
       <c r="D31">
-        <v>0.2812715341379338</v>
+        <v>0.07690735516052986</v>
       </c>
       <c r="E31">
-        <v>0.73938335092384</v>
+        <v>0.03407446218218764</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3793,16 +3793,16 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.892745762520105</v>
       </c>
       <c r="C32">
-        <v>3.513590159702587E-05</v>
+        <v>0.02109119912553929</v>
       </c>
       <c r="D32">
-        <v>0.2731323561380083</v>
+        <v>0.0800561172879715</v>
       </c>
       <c r="E32">
-        <v>0.7475325079603946</v>
+        <v>0.03610692106638382</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3810,16 +3810,16 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.8866347893397767</v>
       </c>
       <c r="C33">
-        <v>2.73641421129181E-05</v>
+        <v>0.02183651613319674</v>
       </c>
       <c r="D33">
-        <v>0.2652268127967904</v>
+        <v>0.0833064488965269</v>
       </c>
       <c r="E33">
-        <v>0.7554458230610965</v>
+        <v>0.03822224563049926</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3827,16 +3827,16 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.8803211806530878</v>
       </c>
       <c r="C34">
-        <v>2.13114290381369E-05</v>
+        <v>0.02259631194926703</v>
       </c>
       <c r="D34">
-        <v>0.2575486160719507</v>
+        <v>0.08665942643905467</v>
       </c>
       <c r="E34">
-        <v>0.763130072499011</v>
+        <v>0.04042308095859001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3844,16 +3844,16 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.8738022969684885</v>
       </c>
       <c r="C35">
-        <v>1.659752407999431E-05</v>
+        <v>0.02336971388791723</v>
       </c>
       <c r="D35">
-        <v>0.2500915537437484</v>
+        <v>0.09011589213857843</v>
       </c>
       <c r="E35">
-        <v>0.7705918487321715</v>
+        <v>0.04271209700501535</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3861,16 +3861,16 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.867075807390621</v>
       </c>
       <c r="C36">
-        <v>1.292629438847213E-05</v>
+        <v>0.02415576868108981</v>
       </c>
       <c r="D36">
-        <v>0.2428495107430487</v>
+        <v>0.09367644155532751</v>
       </c>
       <c r="E36">
-        <v>0.7778375629625627</v>
+        <v>0.04509198237296132</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3878,16 +3878,16 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.8601397207417362</v>
       </c>
       <c r="C37">
-        <v>1.00671091550845E-05</v>
+        <v>0.02495343276760323</v>
       </c>
       <c r="D37">
-        <v>0.2358164846579523</v>
+        <v>0.09734140875243423</v>
       </c>
       <c r="E37">
-        <v>0.7848734482328925</v>
+        <v>0.04756543773822597</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3895,16 +3895,16 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.8529924166430379</v>
       </c>
       <c r="C38">
-        <v>7.840351124199109E-06</v>
+        <v>0.02576156476731093</v>
       </c>
       <c r="D38">
-        <v>0.2289865967386556</v>
+        <v>0.1011108497246358</v>
       </c>
       <c r="E38">
-        <v>0.7917055629102201</v>
+        <v>0.05013516886501499</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3912,16 +3912,16 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.8456326764352905</v>
       </c>
       <c r="C39">
-        <v>6.10613283354374E-06</v>
+        <v>0.0265789197648391</v>
       </c>
       <c r="D39">
-        <v>0.2223540994273503</v>
+        <v>0.1049845246239597</v>
       </c>
       <c r="E39">
-        <v>0.7983397944398161</v>
+        <v>0.05280387917591033</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3929,16 +3929,16 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.838059713765509</v>
       </c>
       <c r="C40">
-        <v>4.755508725342902E-06</v>
+        <v>0.02740414515676595</v>
       </c>
       <c r="D40">
-        <v>0.2159133812119448</v>
+        <v>0.1089618792269542</v>
       </c>
       <c r="E40">
-        <v>0.8047818632793298</v>
+        <v>0.05557426185077048</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3946,16 +3946,16 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.8302732046223853</v>
       </c>
       <c r="C41">
-        <v>3.703631062950161E-06</v>
+        <v>0.02823577790948311</v>
       </c>
       <c r="D41">
-        <v>0.2096589694248367</v>
+        <v>0.1130420260281257</v>
       </c>
       <c r="E41">
-        <v>0.8110373269441001</v>
+        <v>0.05844899144000566</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3963,16 +3963,16 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.8222733165657109</v>
       </c>
       <c r="C42">
-        <v>2.884419699905033E-06</v>
+        <v>0.02907224314173449</v>
       </c>
       <c r="D42">
-        <v>0.2035855314697046</v>
+        <v>0.1172237253054619</v>
       </c>
       <c r="E42">
-        <v>0.8171115841105954</v>
+        <v>0.06143071498709247</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3980,16 +3980,16 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.8140607368634878</v>
       </c>
       <c r="C43">
-        <v>2.246410850267836E-06</v>
+        <v>0.02991185399268153</v>
       </c>
       <c r="D43">
-        <v>0.1976878748516347</v>
+        <v>0.1215053664800157</v>
       </c>
       <c r="E43">
-        <v>0.8230098787375149</v>
+        <v>0.06452204266381485</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3997,16 +3997,16 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.8056366992241781</v>
       </c>
       <c r="C44">
-        <v>1.749524075281835E-06</v>
+        <v>0.03075281276812042</v>
       </c>
       <c r="D44">
-        <v>0.1919609463020845</v>
+        <v>0.1258849500778398</v>
       </c>
       <c r="E44">
-        <v>0.8287373041738401</v>
+        <v>0.06772553792986148</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4014,16 +4014,16 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.7970030087904931</v>
       </c>
       <c r="C45">
-        <v>1.362544384802015E-06</v>
+        <v>0.03159321337763782</v>
       </c>
       <c r="D45">
-        <v>0.1863998302249268</v>
+        <v>0.1303600705955761</v>
       </c>
       <c r="E45">
-        <v>0.8342988072306883</v>
+        <v>0.07104370723629282</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4031,16 +4031,16 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.7881620650453406</v>
       </c>
       <c r="C46">
-        <v>1.061161276249616E-06</v>
+        <v>0.03243104508652359</v>
       </c>
       <c r="D46">
-        <v>0.1809997466390244</v>
+        <v>0.1349279005679862</v>
       </c>
       <c r="E46">
-        <v>0.8396991921996992</v>
+        <v>0.07447898930014946</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4048,16 +4048,16 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.7791168822702996</v>
       </c>
       <c r="C47">
-        <v>8.264415212979188E-07</v>
+        <v>0.03326419760995627</v>
       </c>
       <c r="D47">
-        <v>0.175756048753242</v>
+        <v>0.1395851761345622</v>
       </c>
       <c r="E47">
-        <v>0.8449431248052366</v>
+        <v>0.0780337439851818</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4065,16 +4065,16 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.7698711071926105</v>
       </c>
       <c r="C48">
-        <v>6.436397590186429E-07</v>
+        <v>0.0340904675746523</v>
       </c>
       <c r="D48">
-        <v>0.1706642202790319</v>
+        <v>0.1443281844013714</v>
       </c>
       <c r="E48">
-        <v>0.850035136081209</v>
+        <v>0.08171024083136563</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4082,16 +4082,16 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.7604290334585577</v>
       </c>
       <c r="C49">
-        <v>5.012721756028981E-07</v>
+        <v>0.03490756636580736</v>
       </c>
       <c r="D49">
-        <v>0.1657198725617822</v>
+        <v>0.1491527528921208</v>
       </c>
       <c r="E49">
-        <v>0.8549796261660421</v>
+        <v>0.08551064728351396</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4099,16 +4099,16 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.7507956125796654</v>
       </c>
       <c r="C50">
-        <v>3.903950781672961E-07</v>
+        <v>0.0357131293655282</v>
       </c>
       <c r="D50">
-        <v>0.1609187415934889</v>
+        <v>0.1540542413779482</v>
       </c>
       <c r="E50">
-        <v>0.8597808680114328</v>
+        <v>0.08943701667685798</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4116,16 +4116,16 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.7409764610136746</v>
       </c>
       <c r="C51">
-        <v>3.040430418343932E-07</v>
+        <v>0.0365047265736954</v>
       </c>
       <c r="D51">
-        <v>0.156256684954824</v>
+        <v>0.1590275363677536</v>
       </c>
       <c r="E51">
-        <v>0.8644430110021341</v>
+        <v>0.09349127604487623</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4133,16 +4133,16 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.7309778630650769</v>
       </c>
       <c r="C52">
-        <v>2.367913338505162E-07</v>
+        <v>0.03727987458388346</v>
       </c>
       <c r="D52">
-        <v>0.1517296787234054</v>
+        <v>0.1640670485292313</v>
       </c>
       <c r="E52">
-        <v>0.8689700844852607</v>
+        <v>0.09767521382180815</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4150,16 +4150,16 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.7208067693202042</v>
       </c>
       <c r="C53">
-        <v>1.844151257283073E-07</v>
+        <v>0.03803604986614254</v>
       </c>
       <c r="D53">
-        <v>0.1473338143763198</v>
+        <v>0.1691667132945669</v>
       </c>
       <c r="E53">
-        <v>0.8733660012085543</v>
+        <v>0.1019904675190863</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4167,16 +4167,16 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.7104707903695071</v>
       </c>
       <c r="C54">
-        <v>1.436240847346925E-07</v>
+        <v>0.03877070328567176</v>
       </c>
       <c r="D54">
-        <v>0.143065295708151</v>
+        <v>0.1743199948835855</v>
       </c>
       <c r="E54">
-        <v>0.8776345606677642</v>
+        <v>0.1064385114612356</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4184,16 +4184,16 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.699978185614539</v>
       </c>
       <c r="C55">
-        <v>1.118556714608567E-07</v>
+        <v>0.03948127576227056</v>
       </c>
       <c r="D55">
-        <v>0.1389204357804813</v>
+        <v>0.1795198939507034</v>
       </c>
       <c r="E55">
-        <v>0.8817794523638472</v>
+        <v>0.111020644672487</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4201,16 +4201,16 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.68933784700893</v>
       </c>
       <c r="C56">
-        <v>8.71141581933918E-08</v>
+        <v>0.04016521495056398</v>
       </c>
       <c r="D56">
-        <v>0.1348956539147465</v>
+        <v>0.1847589590302105</v>
       </c>
       <c r="E56">
-        <v>0.8858042589710953</v>
+        <v>0.1157379790102955</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4218,16 +4218,16 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.6785592776407415</v>
       </c>
       <c r="C57">
-        <v>6.784525503831051E-08</v>
+        <v>0.04081999279602445</v>
       </c>
       <c r="D57">
-        <v>0.1309874727371453</v>
+        <v>0.1900293019172289</v>
       </c>
       <c r="E57">
-        <v>0.8897124594175996</v>
+        <v>0.120591427646005</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4235,16 +4235,16 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.667652565127253</v>
       </c>
       <c r="C58">
-        <v>5.283846766899671E-08</v>
+        <v>0.04144312379745684</v>
       </c>
       <c r="D58">
-        <v>0.1271925152818524</v>
+        <v>0.1953226170793697</v>
       </c>
       <c r="E58">
-        <v>0.8935074318796798</v>
+        <v>0.1255816939959203</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4252,16 +4252,16 @@
         <v>54</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.65662834986149</v>
       </c>
       <c r="C59">
-        <v>4.115105270119617E-08</v>
+        <v>0.04203218378360492</v>
       </c>
       <c r="D59">
-        <v>0.1235075021568877</v>
+        <v>0.2006302051469974</v>
       </c>
       <c r="E59">
-        <v>0.8971924566920595</v>
+        <v>0.1307092612079076</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4269,16 +4269,16 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.645497788221473</v>
       </c>
       <c r="C60">
-        <v>3.204879348555073E-08</v>
+        <v>0.04258482899061551</v>
       </c>
       <c r="D60">
-        <v>0.1199292487755309</v>
+        <v>0.2059430004786808</v>
       </c>
       <c r="E60">
-        <v>0.9007707191756756</v>
+        <v>0.1359743823092306</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4286,16 +4286,16 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.6342725109269171</v>
       </c>
       <c r="C61">
-        <v>2.495987578586593E-08</v>
+        <v>0.04309881520899507</v>
       </c>
       <c r="D61">
-        <v>0.1164546626550453</v>
+        <v>0.2112516027435514</v>
       </c>
       <c r="E61">
-        <v>0.9042453123850789</v>
+        <v>0.1413770711205364</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4303,16 +4303,16 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.6229645768024339</v>
       </c>
       <c r="C62">
-        <v>1.943896576096492E-08</v>
+        <v>0.04357201675411281</v>
       </c>
       <c r="D62">
-        <v>0.1130807407836172</v>
+        <v>0.2165463124047982</v>
       </c>
       <c r="E62">
-        <v>0.907619239777417</v>
+        <v>0.146917094038655</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4320,16 +4320,16 @@
         <v>58</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.6115864222795865</v>
       </c>
       <c r="C63">
-        <v>1.513923358825149E-08</v>
+        <v>0.04400244500389013</v>
       </c>
       <c r="D63">
-        <v>0.1098045670557534</v>
+        <v>0.2218171699294071</v>
       </c>
       <c r="E63">
-        <v>0.9108954178050129</v>
+        <v>0.1525939627871163</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4337,16 +4337,16 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.600150807040735</v>
       </c>
       <c r="C64">
-        <v>1.179056522131891E-08</v>
+        <v>0.04438826624163059</v>
       </c>
       <c r="D64">
-        <v>0.1066233097758875</v>
+        <v>0.2270539984896491</v>
       </c>
       <c r="E64">
-        <v>0.9140766784335472</v>
+        <v>0.1584069282279853</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4354,16 +4354,16 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.5886707562738042</v>
       </c>
       <c r="C65">
-        <v>9.182593519533038E-09</v>
+        <v>0.04472781854144138</v>
       </c>
       <c r="D65">
-        <v>0.1035342192295648</v>
+        <v>0.2322464498629754</v>
       </c>
       <c r="E65">
-        <v>0.9171657715878416</v>
+        <v>0.1643549753217789</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4371,16 +4371,16 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.5771595000672293</v>
       </c>
       <c r="C66">
-        <v>7.151482745925388E-09</v>
+        <v>0.04501962743869845</v>
       </c>
       <c r="D66">
-        <v>0.1005346253212986</v>
+        <v>0.2373840531801848</v>
       </c>
       <c r="E66">
-        <v>0.9201653675272186</v>
+        <v>0.1704368193138873</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4388,16 +4388,16 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.565630410526834</v>
       </c>
       <c r="C67">
-        <v>5.56963622058154E-09</v>
+        <v>0.04526242013868317</v>
       </c>
       <c r="D67">
-        <v>0.09762193527798396</v>
+        <v>0.2424562661183267</v>
       </c>
       <c r="E67">
-        <v>0.9230780591523797</v>
+        <v>0.176650903216156</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4405,16 +4405,16 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.5540969372398339</v>
       </c>
       <c r="C68">
-        <v>4.337680552650174E-09</v>
+        <v>0.04545513803287086</v>
       </c>
       <c r="D68">
-        <v>0.09479363141660588</v>
+        <v>0.247452528086106</v>
       </c>
       <c r="E68">
-        <v>0.9259063642457135</v>
+        <v>0.1829953966411891</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4422,16 +4422,16 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.5425725417443131</v>
       </c>
       <c r="C69">
-        <v>3.378222891346205E-09</v>
+        <v>0.04559694731420543</v>
       </c>
       <c r="D69">
-        <v>0.09204726897487542</v>
+        <v>0.2523623149068253</v>
       </c>
       <c r="E69">
-        <v>0.9286527276469017</v>
+        <v>0.189468196034656</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4439,16 +4439,16 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.5310706316844152</v>
       </c>
       <c r="C70">
-        <v>2.630989019383397E-09</v>
+        <v>0.04568724750969713</v>
       </c>
       <c r="D70">
-        <v>0.08938047400335694</v>
+        <v>0.2571751944683034</v>
       </c>
       <c r="E70">
-        <v>0.931319523365654</v>
+        <v>0.1960669263375841</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4456,16 +4456,16 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.5196044953414185</v>
       </c>
       <c r="C71">
-        <v>2.049036858357675E-09</v>
+        <v>0.04572567778030148</v>
       </c>
       <c r="D71">
-        <v>0.0867909413176054</v>
+        <v>0.2618808827817724</v>
       </c>
       <c r="E71">
-        <v>0.9339090566333578</v>
+        <v>0.2027889440965075</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4473,16 +4473,16 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.5081872372284588</v>
       </c>
       <c r="C72">
-        <v>1.595807514199459E-09</v>
+        <v>0.04571212087358818</v>
       </c>
       <c r="D72">
-        <v>0.08427643250880966</v>
+        <v>0.2664692998733247</v>
       </c>
       <c r="E72">
-        <v>0.9364235658953829</v>
+        <v>0.2096313420246281</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4490,16 +4490,16 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.4968317154218612</v>
       </c>
       <c r="C73">
-        <v>1.242828606029364E-09</v>
+        <v>0.04564670465335447</v>
       </c>
       <c r="D73">
-        <v>0.08183477401142902</v>
+        <v>0.2709306249227005</v>
       </c>
       <c r="E73">
-        <v>0.9388652247457424</v>
+        <v>0.2165909550020837</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4507,16 +4507,16 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.4855504812751463</v>
       </c>
       <c r="C74">
-        <v>9.679255989340014E-10</v>
+        <v>0.04552980117113144</v>
       </c>
       <c r="D74">
-        <v>0.07946385522631395</v>
+        <v>0.2752553500654704</v>
       </c>
       <c r="E74">
-        <v>0.9412361438057605</v>
+        <v>0.2236643674882516</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4524,16 +4524,16 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.474355722123404</v>
       </c>
       <c r="C75">
-        <v>7.538287745604162E-10</v>
+        <v>0.04536202328644159</v>
       </c>
       <c r="D75">
-        <v>0.07716162669781422</v>
+        <v>0.2794343322861307</v>
       </c>
       <c r="E75">
-        <v>0.943538372548357</v>
+        <v>0.2308479223040234</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4541,16 +4541,16 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.463259207536808</v>
       </c>
       <c r="C76">
-        <v>5.870883278436835E-10</v>
+        <v>0.04514421888461363</v>
       </c>
       <c r="D76">
-        <v>0.07492609834339634</v>
+        <v>0.2834588428511668</v>
       </c>
       <c r="E76">
-        <v>0.9457739010695154</v>
+        <v>0.2381377307274113</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4558,16 +4558,16 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.4522722396238021</v>
       </c>
       <c r="C77">
-        <v>4.572294350149781E-10</v>
+        <v>0.04487746278185938</v>
       </c>
       <c r="D77">
-        <v>0.07275533773431637</v>
+        <v>0.2873206137623726</v>
       </c>
       <c r="E77">
-        <v>0.9479446618084543</v>
+        <v>0.2455296838319658</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4575,16 +4575,16 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.4414056078183606</v>
       </c>
       <c r="C78">
-        <v>3.560942133051221E-10</v>
+        <v>0.04456304644611352</v>
       </c>
       <c r="D78">
-        <v>0.07064746842592097</v>
+        <v>0.2910118807510017</v>
       </c>
       <c r="E78">
-        <v>0.9500525312179849</v>
+        <v>0.253019464984524</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4592,16 +4592,16 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.4306695485133568</v>
       </c>
       <c r="C79">
-        <v>2.773292335066747E-10</v>
+        <v>0.04420246569784436</v>
       </c>
       <c r="D79">
-        <v>0.06860066833617967</v>
+        <v>0.2945254223817949</v>
       </c>
       <c r="E79">
-        <v>0.9520993313864913</v>
+        <v>0.2606025634070038</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4609,16 +4609,16 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.4200737098252203</v>
       </c>
       <c r="C80">
-        <v>2.159863903530987E-10</v>
+        <v>0.04379740658678288</v>
       </c>
       <c r="D80">
-        <v>0.06661316817108273</v>
+        <v>0.2978545948914962</v>
       </c>
       <c r="E80">
-        <v>0.9540868316129311</v>
+        <v>0.2682742886965004</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4626,16 +4626,16 @@
         <v>76</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.4096271216955721</v>
       </c>
       <c r="C81">
-        <v>1.682120569400354E-10</v>
+        <v>0.04334972966754445</v>
       </c>
       <c r="D81">
-        <v>0.06468324989557146</v>
+        <v>0.3009933624478762</v>
       </c>
       <c r="E81">
-        <v>0.9560167499362167</v>
+        <v>0.276029786189007</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4643,16 +4643,16 @@
         <v>77</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.3993381714552166</v>
       </c>
       <c r="C82">
-        <v>1.310049955172639E-10</v>
+        <v>0.04286145291884543</v>
       </c>
       <c r="D82">
-        <v>0.06280924524870107</v>
+        <v>0.3039363225811478</v>
       </c>
       <c r="E82">
-        <v>0.9578907546202942</v>
+        <v>0.2838640530447901</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4660,16 +4660,16 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.3892145848965513</v>
       </c>
       <c r="C83">
-        <v>1.020278163330253E-10</v>
+        <v>0.04233473356703902</v>
       </c>
       <c r="D83">
-        <v>0.06098953430176951</v>
+        <v>0.3066787266084962</v>
       </c>
       <c r="E83">
-        <v>0.9597104655962029</v>
+        <v>0.2917719549279134</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4677,16 +4677,16 @@
         <v>79</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.3792634128237971</v>
       </c>
       <c r="C84">
-        <v>7.946014016170676E-11</v>
+        <v>0.04177184908478542</v>
       </c>
       <c r="D84">
-        <v>0.05922254405817916</v>
+        <v>0.3092164949427494</v>
       </c>
       <c r="E84">
-        <v>0.9614774558623609</v>
+        <v>0.2997482431486679</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4694,16 +4694,16 @@
         <v>80</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.3694910229779804</v>
       </c>
       <c r="C85">
-        <v>6.188424001851674E-11</v>
+        <v>0.04117517763979538</v>
       </c>
       <c r="D85">
-        <v>0.0575067470938314</v>
+        <v>0.3115462272464674</v>
       </c>
       <c r="E85">
-        <v>0.9631932528442846</v>
+        <v>0.3077875721357567</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4711,16 +4711,16 @@
         <v>81</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.3599030971666633</v>
       </c>
       <c r="C86">
-        <v>4.81959779441085E-11</v>
+        <v>0.04054717826688557</v>
       </c>
       <c r="D86">
-        <v>0.0558406602368868</v>
+        <v>0.3136652074614792</v>
       </c>
       <c r="E86">
-        <v>0.9648593397149174</v>
+        <v>0.3158845171049718</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4728,16 +4728,16 @@
         <v>82</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.3505046333681097</v>
       </c>
       <c r="C87">
-        <v>3.753544180705716E-11</v>
+        <v>0.03989037102936938</v>
       </c>
       <c r="D87">
-        <v>0.05422284328575586</v>
+        <v>0.3155714038097768</v>
       </c>
       <c r="E87">
-        <v>0.966477156676709</v>
+        <v>0.324033591792744</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4745,16 +4745,16 @@
         <v>83</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>0.3412999525267795</v>
       </c>
       <c r="C88">
-        <v>2.923292464953914E-11</v>
+        <v>0.03920731742353348</v>
       </c>
       <c r="D88">
-        <v>0.05265189776421712</v>
+        <v>0.3172634639234523</v>
       </c>
       <c r="E88">
-        <v>0.9680481022065502</v>
+        <v>0.3322292661262347</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4762,16 +4762,16 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.3322927097123626</v>
       </c>
       <c r="C89">
-        <v>2.276685293750729E-11</v>
+        <v>0.03850060126319917</v>
       </c>
       <c r="D89">
-        <v>0.05112646571259021</v>
+        <v>0.3187407053179656</v>
       </c>
       <c r="E89">
-        <v>0.9695735342646432</v>
+        <v>0.3404659837064725</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4779,16 +4779,16 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.3234859092783686</v>
       </c>
       <c r="C90">
-        <v>1.773102072037311E-11</v>
+        <v>0.0377728102608108</v>
       </c>
       <c r="D90">
-        <v>0.04964522851392193</v>
+        <v>0.3200031014735654</v>
       </c>
       <c r="E90">
-        <v>0.9710547714683473</v>
+        <v>0.3487381789872551</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4796,16 +4796,16 @@
         <v>86</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.3148819236286952</v>
       </c>
       <c r="C91">
-        <v>1.380907131298589E-11</v>
+        <v>0.03702651849787306</v>
       </c>
       <c r="D91">
-        <v>0.04820690575417288</v>
+        <v>0.321051263833458</v>
       </c>
       <c r="E91">
-        <v>0.9724930942320182</v>
+        <v>0.3570402940399737</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4813,16 +4813,16 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.3064825151815026</v>
       </c>
       <c r="C92">
-        <v>1.075462341026001E-11</v>
+        <v>0.03626426995164852</v>
       </c>
       <c r="D92">
-        <v>0.04681025411542136</v>
+        <v>0.3218864200638428</v>
       </c>
       <c r="E92">
-        <v>0.9738897458738242</v>
+        <v>0.365366794803006</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4830,16 +4830,16 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.2982888611088133</v>
       </c>
       <c r="C93">
-        <v>8.375793134455429E-12</v>
+        <v>0.03548856321761054</v>
       </c>
       <c r="D93">
-        <v>0.04545406630112894</v>
+        <v>0.322510388949929</v>
       </c>
       <c r="E93">
-        <v>0.9752459336904954</v>
+        <v>0.3737121867236471</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4847,16 +4847,16 @@
         <v>89</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.2903015804270535</v>
       </c>
       <c r="C94">
-        <v>6.523139672586138E-12</v>
+        <v>0.03470183753898622</v>
       </c>
       <c r="D94">
-        <v>0.04413716999253995</v>
+        <v>0.322925552323425</v>
       </c>
       <c r="E94">
-        <v>0.976562830000937</v>
+        <v>0.3820710297105352</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4864,16 +4864,16 @@
         <v>90</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.282520763017636</v>
       </c>
       <c r="C95">
-        <v>5.080277235241646E-12</v>
+        <v>0.03390646022654042</v>
       </c>
       <c r="D95">
-        <v>0.04285842683531359</v>
+        <v>0.3231348244308577</v>
       </c>
       <c r="E95">
-        <v>0.9778415731596063</v>
+        <v>0.3904379523249658</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4881,16 +4881,16 @@
         <v>91</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.2749460001669048</v>
       </c>
       <c r="C96">
-        <v>3.956563569438684E-12</v>
+        <v>0.03310471552420201</v>
       </c>
       <c r="D96">
-        <v>0.04161673145551325</v>
+        <v>0.323141619158701</v>
       </c>
       <c r="E96">
-        <v>0.9790832685405304</v>
+        <v>0.398807665150192</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4898,16 +4898,16 @@
         <v>92</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.2675764162305271</v>
       </c>
       <c r="C97">
-        <v>3.081405709597022E-12</v>
+        <v>0.0322987949497965</v>
       </c>
       <c r="D97">
-        <v>0.04041101050410303</v>
+        <v>0.3229498155310832</v>
       </c>
       <c r="E97">
-        <v>0.9802889894928157</v>
+        <v>0.407174973288593</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4915,16 +4915,16 @@
         <v>93</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.2604107010478471</v>
       </c>
       <c r="C98">
-        <v>2.399825247464478E-12</v>
+        <v>0.03149078911551716</v>
       </c>
       <c r="D98">
-        <v>0.03924022172912595</v>
+        <v>0.3225637218893441</v>
       </c>
       <c r="E98">
-        <v>0.9814597782684744</v>
+        <v>0.4155347879472916</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4932,16 +4932,16 @@
         <v>94</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.2534471427559596</v>
       </c>
       <c r="C99">
-        <v>1.869004526223556E-12</v>
+        <v>0.03068268101023477</v>
       </c>
       <c r="D99">
-        <v>0.03810335307476202</v>
+        <v>0.3219880391505515</v>
       </c>
       <c r="E99">
-        <v>0.9825966469233691</v>
+        <v>0.423882137083254</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4949,16 +4949,16 @@
         <v>95</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.2466836606804357</v>
       </c>
       <c r="C100">
-        <v>1.455596786780552E-12</v>
+        <v>0.02987634070561346</v>
       </c>
       <c r="D100">
-        <v>0.03699942180648765</v>
+        <v>0.3212278235249705</v>
       </c>
       <c r="E100">
-        <v>0.9837005781920569</v>
+        <v>0.4322121750889802</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4966,16 +4966,16 @@
         <v>96</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.2401178380089144</v>
       </c>
       <c r="C101">
-        <v>1.133631286579581E-12</v>
+        <v>0.0290735214304715</v>
       </c>
       <c r="D101">
-        <v>0.03592747366158042</v>
+        <v>0.3202884490511478</v>
       </c>
       <c r="E101">
-        <v>0.9847725263372861</v>
+        <v>0.4405201915094663</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4983,16 +4983,16 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>0.2337469539843927</v>
       </c>
       <c r="C102">
-        <v>8.828817881320465E-13</v>
+        <v>0.0282758569430126</v>
       </c>
       <c r="D102">
-        <v>0.03488658202423499</v>
+        <v>0.3191755702825012</v>
       </c>
       <c r="E102">
-        <v>0.9858134179748823</v>
+        <v>0.4488016187900934</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5000,16 +5000,16 @@
         <v>98</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>0.227568015386265</v>
       </c>
       <c r="C103">
-        <v>6.875959238626045E-13</v>
+        <v>0.02748486011848729</v>
       </c>
       <c r="D103">
-        <v>0.03387584712457715</v>
+        <v>0.3178950854318468</v>
       </c>
       <c r="E103">
-        <v>0.9868241528747355</v>
+        <v>0.4570520390634008</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5017,16 +5017,16 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2215777870983671</v>
       </c>
       <c r="C104">
-        <v>5.355056145316672E-13</v>
+        <v>0.02670192266047999</v>
       </c>
       <c r="D104">
-        <v>0.03289439526088388</v>
+        <v>0.3164531002509007</v>
       </c>
       <c r="E104">
-        <v>0.9878056047385808</v>
+        <v>0.4652671899902521</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5034,16 +5034,16 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>0.215772821593898</v>
       </c>
       <c r="C105">
-        <v>4.170563745986372E-13</v>
+        <v>0.02592831583724889</v>
       </c>
       <c r="D105">
-        <v>0.03194137804433697</v>
+        <v>0.3148558928911617</v>
       </c>
       <c r="E105">
-        <v>0.9887586219552461</v>
+        <v>0.4734429696776914</v>
       </c>
     </row>
   </sheetData>
